--- a/PSM-四个变量-2009基期/匹配后数据集_四个变量.xlsx
+++ b/PSM-四个变量-2009基期/匹配后数据集_四个变量.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Treat</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>logit_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -464,6 +469,9 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.6286644080352393</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -481,6 +489,9 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.6671155460521755</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -498,6 +509,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.2179137883552889</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -515,6 +529,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.3546573132715832</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -532,6 +549,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.9757472125244655</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -549,6 +569,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1.030825748156359</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -566,6 +589,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.6338070996748623</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -583,6 +609,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.8668590642791186</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -600,6 +629,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.1663273449224008</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -617,6 +649,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.5230382668037075</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -634,6 +669,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>1.279035002788297</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -651,6 +689,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.4915464469300441</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -668,6 +709,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>1.887661033588823</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -685,6 +729,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.3905943159322885</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -702,6 +749,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.9931579936241534</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -719,6 +769,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1.20207214254794</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -736,6 +789,9 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
+      <c r="F18" t="n">
+        <v>1.106433323085804</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -753,6 +809,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>-0.5678490455715921</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -770,6 +829,9 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="n">
+        <v>-0.63232907746145</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -787,6 +849,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>-0.4402773439879248</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -804,6 +869,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>-0.8541602602121471</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -821,6 +889,9 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
+      <c r="F23" t="n">
+        <v>-1.141945666407446</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -838,6 +909,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>-0.6038553810350087</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -855,6 +929,9 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
+      <c r="F25" t="n">
+        <v>-0.8489647873824467</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -872,6 +949,9 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.6546225121448381</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -889,6 +969,9 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.9458217802914393</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -906,6 +989,9 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
+      <c r="F28" t="n">
+        <v>1.457015723076256</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -923,3201 +1009,3488 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
+      <c r="F29" t="n">
+        <v>-0.8013224745665668</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.13608561537499</v>
+        <v>5.17417263816715</v>
       </c>
       <c r="B30" t="n">
-        <v>6.60808351532931</v>
+        <v>4.71741755368333</v>
       </c>
       <c r="C30" t="n">
-        <v>1.30451231747515</v>
+        <v>0.712298306772316</v>
       </c>
       <c r="D30" t="n">
-        <v>0.533324658870697</v>
+        <v>0.310666799545288</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.7173893244503544</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.17417263816715</v>
+        <v>7.01184138292221</v>
       </c>
       <c r="B31" t="n">
-        <v>4.71741755368333</v>
+        <v>5.2585548875099</v>
       </c>
       <c r="C31" t="n">
-        <v>0.712298306772316</v>
+        <v>0.810517345005681</v>
       </c>
       <c r="D31" t="n">
-        <v>0.310666799545288</v>
+        <v>0.554101526737213</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2062023431988432</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.01184138292221</v>
+        <v>6.35987451551511</v>
       </c>
       <c r="B32" t="n">
-        <v>5.2585548875099</v>
+        <v>5.3213526366054</v>
       </c>
       <c r="C32" t="n">
-        <v>0.810517345005681</v>
+        <v>0.454768153682399</v>
       </c>
       <c r="D32" t="n">
-        <v>0.554101526737213</v>
+        <v>0.590725302696228</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.6446267773381036</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.35987451551511</v>
+        <v>5.93756786685032</v>
       </c>
       <c r="B33" t="n">
-        <v>5.3213526366054</v>
+        <v>5.34407724295968</v>
       </c>
       <c r="C33" t="n">
-        <v>0.454768153682399</v>
+        <v>0.509415567553276</v>
       </c>
       <c r="D33" t="n">
-        <v>0.590725302696228</v>
+        <v>0.435153394937515</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.7075353388865511</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.93756786685032</v>
+        <v>7.56238821677982</v>
       </c>
       <c r="B34" t="n">
-        <v>5.34407724295968</v>
+        <v>6.92287416193236</v>
       </c>
       <c r="C34" t="n">
-        <v>0.509415567553276</v>
+        <v>0.913119748657544</v>
       </c>
       <c r="D34" t="n">
-        <v>0.435153394937515</v>
+        <v>0.567368924617767</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.615355896399061</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7.56238821677982</v>
+        <v>5.32426333969527</v>
       </c>
       <c r="B35" t="n">
-        <v>6.92287416193236</v>
+        <v>5.12514835396739</v>
       </c>
       <c r="C35" t="n">
-        <v>0.913119748657544</v>
+        <v>1.09246160368284</v>
       </c>
       <c r="D35" t="n">
-        <v>0.567368924617767</v>
+        <v>0.338620215654373</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.08378553607003526</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.32426333969527</v>
+        <v>8.988856442727091</v>
       </c>
       <c r="B36" t="n">
-        <v>5.12514835396739</v>
+        <v>7.37568014160977</v>
       </c>
       <c r="C36" t="n">
-        <v>1.09246160368284</v>
+        <v>1.33703810558108</v>
       </c>
       <c r="D36" t="n">
-        <v>0.338620215654373</v>
+        <v>0.372252732515335</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.98231193422422</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.988856442727091</v>
+        <v>6.12091854469373</v>
       </c>
       <c r="B37" t="n">
-        <v>7.37568014160977</v>
+        <v>4.07088756218441</v>
       </c>
       <c r="C37" t="n">
-        <v>1.33703810558108</v>
+        <v>0.263076773765636</v>
       </c>
       <c r="D37" t="n">
-        <v>0.372252732515335</v>
+        <v>0.712553262710571</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-1.086716702352583</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.12091854469373</v>
+        <v>7.23525956634105</v>
       </c>
       <c r="B38" t="n">
-        <v>4.07088756218441</v>
+        <v>5.96595828579636</v>
       </c>
       <c r="C38" t="n">
-        <v>0.263076773765636</v>
+        <v>0.631277947580712</v>
       </c>
       <c r="D38" t="n">
-        <v>0.712553262710571</v>
+        <v>0.558342278003693</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.04018363227865569</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.23525956634105</v>
+        <v>8.17571195065366</v>
       </c>
       <c r="B39" t="n">
-        <v>5.96595828579636</v>
+        <v>6.96740396648257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.631277947580712</v>
+        <v>1.59927306207933</v>
       </c>
       <c r="D39" t="n">
-        <v>0.558342278003693</v>
+        <v>0.444587588310242</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.974158717795605</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.17571195065366</v>
+        <v>6.02127768593527</v>
       </c>
       <c r="B40" t="n">
-        <v>6.96740396648257</v>
+        <v>5.33527216941423</v>
       </c>
       <c r="C40" t="n">
-        <v>1.59927306207933</v>
+        <v>0.453834871661023</v>
       </c>
       <c r="D40" t="n">
-        <v>0.444587588310242</v>
+        <v>0.472808241844177</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.7646812479236187</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.02127768593527</v>
+        <v>6.47562145081873</v>
       </c>
       <c r="B41" t="n">
-        <v>5.33527216941423</v>
+        <v>5.25086413653072</v>
       </c>
       <c r="C41" t="n">
-        <v>0.453834871661023</v>
+        <v>0.485429517687359</v>
       </c>
       <c r="D41" t="n">
-        <v>0.472808241844177</v>
+        <v>0.561276197433472</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5350325764203009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.47562145081873</v>
+        <v>6.6257717390085</v>
       </c>
       <c r="B42" t="n">
-        <v>5.25086413653072</v>
+        <v>7.01132411420285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.485429517687359</v>
+        <v>0.333665659165382</v>
       </c>
       <c r="D42" t="n">
-        <v>0.561276197433472</v>
+        <v>0.555615663528442</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.688672522408796</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.6257717390085</v>
+        <v>7.37685412403407</v>
       </c>
       <c r="B43" t="n">
-        <v>7.01132411420285</v>
+        <v>5.69988879100516</v>
       </c>
       <c r="C43" t="n">
-        <v>0.333665659165382</v>
+        <v>1.83224330848736</v>
       </c>
       <c r="D43" t="n">
-        <v>0.555615663528442</v>
+        <v>0.448760122060776</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.94956253109355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.37685412403407</v>
+        <v>6.00915342239573</v>
       </c>
       <c r="B44" t="n">
-        <v>5.69988879100516</v>
+        <v>5.47046354506322</v>
       </c>
       <c r="C44" t="n">
-        <v>1.83224330848736</v>
+        <v>0.928801895250466</v>
       </c>
       <c r="D44" t="n">
-        <v>0.448760122060776</v>
+        <v>0.633175075054169</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.1079684891756174</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.00915342239573</v>
+        <v>5.73074081123728</v>
       </c>
       <c r="B45" t="n">
-        <v>5.47046354506322</v>
+        <v>5.7036556274435</v>
       </c>
       <c r="C45" t="n">
-        <v>0.928801895250466</v>
+        <v>0.313669043355581</v>
       </c>
       <c r="D45" t="n">
-        <v>0.633175075054169</v>
+        <v>0.582314670085907</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-1.146309308335729</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.73074081123728</v>
+        <v>5.81829973903744</v>
       </c>
       <c r="B46" t="n">
-        <v>5.7036556274435</v>
+        <v>5.04554196991451</v>
       </c>
       <c r="C46" t="n">
-        <v>0.313669043355581</v>
+        <v>0.595680813616096</v>
       </c>
       <c r="D46" t="n">
-        <v>0.582314670085907</v>
+        <v>0.501399338245392</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.6555317070249097</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.81829973903744</v>
+        <v>6.25188480783945</v>
       </c>
       <c r="B47" t="n">
-        <v>5.04554196991451</v>
+        <v>5.30573834211053</v>
       </c>
       <c r="C47" t="n">
-        <v>0.595680813616096</v>
+        <v>0.44647235708591</v>
       </c>
       <c r="D47" t="n">
-        <v>0.501399338245392</v>
+        <v>0.59496796131134</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.7087862891631957</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.25188480783945</v>
+        <v>6.60243686314595</v>
       </c>
       <c r="B48" t="n">
-        <v>5.30573834211053</v>
+        <v>5.29425368777213</v>
       </c>
       <c r="C48" t="n">
-        <v>0.44647235708591</v>
+        <v>0.6846987841308509</v>
       </c>
       <c r="D48" t="n">
-        <v>0.59496796131134</v>
+        <v>0.608409404754639</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.1915233547752404</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.355068772324289</v>
+        <v>6.73309243919993</v>
       </c>
       <c r="B49" t="n">
-        <v>6.21893710951178</v>
+        <v>5.82742117932098</v>
       </c>
       <c r="C49" t="n">
-        <v>1.68365526349638</v>
+        <v>0.333082272306511</v>
       </c>
       <c r="D49" t="n">
-        <v>0.477554857730865</v>
+        <v>0.546702563762665</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.638753195433218</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.60243686314595</v>
+        <v>6.53331925095045</v>
       </c>
       <c r="B50" t="n">
-        <v>5.29425368777213</v>
+        <v>5.17462628376754</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6846987841308509</v>
+        <v>0.628466100324568</v>
       </c>
       <c r="D50" t="n">
-        <v>0.608409404754639</v>
+        <v>0.434493809938431</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.2512123737005026</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.73309243919993</v>
+        <v>6.06067199557165</v>
       </c>
       <c r="B51" t="n">
-        <v>5.82742117932098</v>
+        <v>5.57296591006707</v>
       </c>
       <c r="C51" t="n">
-        <v>0.333082272306511</v>
+        <v>0.628428549767615</v>
       </c>
       <c r="D51" t="n">
-        <v>0.546702563762665</v>
+        <v>0.40057846903801</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.459305804695717</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.53331925095045</v>
+        <v>6.11484522005284</v>
       </c>
       <c r="B52" t="n">
-        <v>5.17462628376754</v>
+        <v>4.34135689384921</v>
       </c>
       <c r="C52" t="n">
-        <v>0.628466100324568</v>
+        <v>0.348727902831583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.434493809938431</v>
+        <v>0.668453454971313</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.945599029804295</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.06067199557165</v>
+        <v>5.65600264992195</v>
       </c>
       <c r="B53" t="n">
-        <v>5.57296591006707</v>
+        <v>4.83275223198756</v>
       </c>
       <c r="C53" t="n">
-        <v>0.628428549767615</v>
+        <v>0.792518254720649</v>
       </c>
       <c r="D53" t="n">
-        <v>0.40057846903801</v>
+        <v>0.351565688848495</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.3857245280287653</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.11484522005284</v>
+        <v>6.86340843363457</v>
       </c>
       <c r="B54" t="n">
-        <v>4.34135689384921</v>
+        <v>7.83564514669965</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348727902831583</v>
+        <v>0.750272768486854</v>
       </c>
       <c r="D54" t="n">
-        <v>0.668453454971313</v>
+        <v>0.558558285236359</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.04949919705146616</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8.21410044888902</v>
+        <v>6.04249814527739</v>
       </c>
       <c r="B55" t="n">
-        <v>6.97666966061386</v>
+        <v>6.32094707660674</v>
       </c>
       <c r="C55" t="n">
-        <v>1.26039673379942</v>
+        <v>-0.0304462165840277</v>
       </c>
       <c r="D55" t="n">
-        <v>0.463648587465286</v>
+        <v>0.451593071222305</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-1.475086807991014</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.65600264992195</v>
+        <v>7.17128501786655</v>
       </c>
       <c r="B56" t="n">
-        <v>4.83275223198756</v>
+        <v>6.12998138733378</v>
       </c>
       <c r="C56" t="n">
-        <v>0.792518254720649</v>
+        <v>0.715189074367601</v>
       </c>
       <c r="D56" t="n">
-        <v>0.351565688848495</v>
+        <v>0.581082165241241</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1295224601502531</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.86340843363457</v>
+        <v>5.16910463506753</v>
       </c>
       <c r="B57" t="n">
-        <v>7.83564514669965</v>
+        <v>5.14553583282923</v>
       </c>
       <c r="C57" t="n">
-        <v>0.750272768486854</v>
+        <v>0.621027011239235</v>
       </c>
       <c r="D57" t="n">
-        <v>0.558558285236359</v>
+        <v>0.432787001132965</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.8966447102661703</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6.04249814527739</v>
+        <v>7.98378584223575</v>
       </c>
       <c r="B58" t="n">
-        <v>6.32094707660674</v>
+        <v>6.41980293308572</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.0304462165840277</v>
+        <v>1.01193220696112</v>
       </c>
       <c r="D58" t="n">
-        <v>0.451593071222305</v>
+        <v>0.498401075601578</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9820220960377151</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.17128501786655</v>
+        <v>5.87818134076679</v>
       </c>
       <c r="B59" t="n">
-        <v>6.12998138733378</v>
+        <v>5.21252573565398</v>
       </c>
       <c r="C59" t="n">
-        <v>0.715189074367601</v>
+        <v>0.551449275380544</v>
       </c>
       <c r="D59" t="n">
-        <v>0.581082165241241</v>
+        <v>0.52561491727829</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.7019421910120242</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.16910463506753</v>
+        <v>5.90392976043613</v>
       </c>
       <c r="B60" t="n">
-        <v>5.14553583282923</v>
+        <v>6.62213844446298</v>
       </c>
       <c r="C60" t="n">
-        <v>0.621027011239235</v>
+        <v>0.651035374254198</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432787001132965</v>
+        <v>0.6139456033706669</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.566698631669133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.98378584223575</v>
+        <v>6.79782645558918</v>
       </c>
       <c r="B61" t="n">
-        <v>6.41980293308572</v>
+        <v>6.16971125884253</v>
       </c>
       <c r="C61" t="n">
-        <v>1.01193220696112</v>
+        <v>0.349956638749288</v>
       </c>
       <c r="D61" t="n">
-        <v>0.498401075601578</v>
+        <v>0.482710033655167</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5615382056414889</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.87818134076679</v>
+        <v>8.981804558512581</v>
       </c>
       <c r="B62" t="n">
-        <v>5.21252573565398</v>
+        <v>8.044114486225309</v>
       </c>
       <c r="C62" t="n">
-        <v>0.551449275380544</v>
+        <v>1.24857083810188</v>
       </c>
       <c r="D62" t="n">
-        <v>0.52561491727829</v>
+        <v>0.449438393115997</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.821587555868383</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8.140031243191659</v>
+        <v>6.47253313948633</v>
       </c>
       <c r="B63" t="n">
-        <v>6.70532335523732</v>
+        <v>5.26352055804241</v>
       </c>
       <c r="C63" t="n">
-        <v>1.28087131507857</v>
+        <v>0.366145319191277</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433701545000076</v>
+        <v>0.677738785743713</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.7543985809466762</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.16416896545068</v>
+        <v>7.75667510897945</v>
       </c>
       <c r="B64" t="n">
-        <v>6.70314818856541</v>
+        <v>6.61746830104243</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9107138579831</v>
+        <v>1.35919623826637</v>
       </c>
       <c r="D64" t="n">
-        <v>0.230858474969864</v>
+        <v>0.509418964385986</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.395810782463125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.90392976043613</v>
+        <v>6.13142125312417</v>
       </c>
       <c r="B65" t="n">
-        <v>6.62213844446298</v>
+        <v>5.99842594625062</v>
       </c>
       <c r="C65" t="n">
-        <v>0.651035374254198</v>
+        <v>0.63230745104785</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6139456033706669</v>
+        <v>0.423830628395081</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4274673554311268</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.79782645558918</v>
+        <v>6.2704659891707</v>
       </c>
       <c r="B66" t="n">
-        <v>6.16971125884253</v>
+        <v>6.37800799568609</v>
       </c>
       <c r="C66" t="n">
-        <v>0.349956638749288</v>
+        <v>0.423330172505361</v>
       </c>
       <c r="D66" t="n">
-        <v>0.482710033655167</v>
+        <v>0.5243988037109369</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.7098359878027888</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8.981804558512581</v>
+        <v>6.91405638524981</v>
       </c>
       <c r="B67" t="n">
-        <v>8.044114486225309</v>
+        <v>6.32084386240343</v>
       </c>
       <c r="C67" t="n">
-        <v>1.24857083810188</v>
+        <v>0.50691376722768</v>
       </c>
       <c r="D67" t="n">
-        <v>0.449438393115997</v>
+        <v>0.385742157697678</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.2389584052286692</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.47253313948633</v>
+        <v>7.7067946338444</v>
       </c>
       <c r="B68" t="n">
-        <v>5.26352055804241</v>
+        <v>6.31808987581593</v>
       </c>
       <c r="C68" t="n">
-        <v>0.366145319191277</v>
+        <v>0.568845565816174</v>
       </c>
       <c r="D68" t="n">
-        <v>0.677738785743713</v>
+        <v>0.563701629638672</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1644504424995519</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.75667510897945</v>
+        <v>6.13500109581542</v>
       </c>
       <c r="B69" t="n">
-        <v>6.61746830104243</v>
+        <v>6.74219567819444</v>
       </c>
       <c r="C69" t="n">
-        <v>1.35919623826637</v>
+        <v>0.4446005934448</v>
       </c>
       <c r="D69" t="n">
-        <v>0.509418964385986</v>
+        <v>0.549927711486816</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.7486234697885166</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.13142125312417</v>
+        <v>8.05622256151266</v>
       </c>
       <c r="B70" t="n">
-        <v>5.99842594625062</v>
+        <v>6.23776294033451</v>
       </c>
       <c r="C70" t="n">
-        <v>0.63230745104785</v>
+        <v>0.38632322919119</v>
       </c>
       <c r="D70" t="n">
-        <v>0.423830628395081</v>
+        <v>0.601700782775879</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.03961149194039749</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.2704659891707</v>
+        <v>6.92235912186883</v>
       </c>
       <c r="B71" t="n">
-        <v>6.37800799568609</v>
+        <v>6.80948953061144</v>
       </c>
       <c r="C71" t="n">
-        <v>0.423330172505361</v>
+        <v>1.11505325276638</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5243988037109369</v>
+        <v>0.514682471752167</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6387050861074636</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.91405638524981</v>
+        <v>6.39838592766984</v>
       </c>
       <c r="B72" t="n">
-        <v>6.32084386240343</v>
+        <v>5.82479001569288</v>
       </c>
       <c r="C72" t="n">
-        <v>0.50691376722768</v>
+        <v>0.479267472540812</v>
       </c>
       <c r="D72" t="n">
-        <v>0.385742157697678</v>
+        <v>0.609954595565796</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5952848996079119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7.7067946338444</v>
+        <v>7.85780645924404</v>
       </c>
       <c r="B73" t="n">
-        <v>6.31808987581593</v>
+        <v>6.43533581118066</v>
       </c>
       <c r="C73" t="n">
-        <v>0.568845565816174</v>
+        <v>0.986586829073968</v>
       </c>
       <c r="D73" t="n">
-        <v>0.563701629638672</v>
+        <v>0.495798468589783</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8861381702579808</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.13500109581542</v>
+        <v>6.23088077728458</v>
       </c>
       <c r="B74" t="n">
-        <v>6.74219567819444</v>
+        <v>5.98104221866587</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4446005934448</v>
+        <v>0.919910112289601</v>
       </c>
       <c r="D74" t="n">
-        <v>0.549927711486816</v>
+        <v>0.38740149140358</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.06372238546749931</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8.05622256151266</v>
+        <v>6.59855861866556</v>
       </c>
       <c r="B75" t="n">
-        <v>6.23776294033451</v>
+        <v>5.53568463952891</v>
       </c>
       <c r="C75" t="n">
-        <v>0.38632322919119</v>
+        <v>0.529610501380719</v>
       </c>
       <c r="D75" t="n">
-        <v>0.601700782775879</v>
+        <v>0.402854830026627</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.3586052310199703</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.92235912186883</v>
+        <v>8.590204405207469</v>
       </c>
       <c r="B76" t="n">
-        <v>6.80948953061144</v>
+        <v>7.00656161070404</v>
       </c>
       <c r="C76" t="n">
-        <v>1.11505325276638</v>
+        <v>0.921706345059398</v>
       </c>
       <c r="D76" t="n">
-        <v>0.514682471752167</v>
+        <v>0.587468028068542</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.100028154705867</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.39838592766984</v>
+        <v>7.04867046915483</v>
       </c>
       <c r="B77" t="n">
-        <v>5.82479001569288</v>
+        <v>6.24030068343708</v>
       </c>
       <c r="C77" t="n">
-        <v>0.479267472540812</v>
+        <v>-0.0683217765102329</v>
       </c>
       <c r="D77" t="n">
-        <v>0.609954595565796</v>
+        <v>0.374931752681732</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.038818275134141</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.85780645924404</v>
+        <v>6.41172614524015</v>
       </c>
       <c r="B78" t="n">
-        <v>6.43533581118066</v>
+        <v>6.02128645194568</v>
       </c>
       <c r="C78" t="n">
-        <v>0.986586829073968</v>
+        <v>0.568530047276108</v>
       </c>
       <c r="D78" t="n">
-        <v>0.495798468589783</v>
+        <v>0.358085066080093</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.3713399653713065</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.23088077728458</v>
+        <v>6.25924316593078</v>
       </c>
       <c r="B79" t="n">
-        <v>5.98104221866587</v>
+        <v>5.43716052964261</v>
       </c>
       <c r="C79" t="n">
-        <v>0.919910112289601</v>
+        <v>0.277408252766742</v>
       </c>
       <c r="D79" t="n">
-        <v>0.38740149140358</v>
+        <v>0.441992998123169</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.909202884529829</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.59855861866556</v>
+        <v>6.20630532559962</v>
       </c>
       <c r="B80" t="n">
-        <v>5.53568463952891</v>
+        <v>5.48588472604768</v>
       </c>
       <c r="C80" t="n">
-        <v>0.529610501380719</v>
+        <v>0.791107555202598</v>
       </c>
       <c r="D80" t="n">
-        <v>0.402854830026627</v>
+        <v>0.546137630939484</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.1947942266968543</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8.590204405207469</v>
+        <v>7.01882963949304</v>
       </c>
       <c r="B81" t="n">
-        <v>7.00656161070404</v>
+        <v>5.62081886680387</v>
       </c>
       <c r="C81" t="n">
-        <v>0.921706345059398</v>
+        <v>0.26797427667197</v>
       </c>
       <c r="D81" t="n">
-        <v>0.587468028068542</v>
+        <v>0.479030162096024</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5818682463622347</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.04867046915483</v>
+        <v>6.10242726607984</v>
       </c>
       <c r="B82" t="n">
-        <v>6.24030068343708</v>
+        <v>5.66181827555717</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0683217765102329</v>
+        <v>1.597245766359</v>
       </c>
       <c r="D82" t="n">
-        <v>0.374931752681732</v>
+        <v>0.497615098953247</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9866751646261028</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6.41172614524015</v>
+        <v>6.6273249820644</v>
       </c>
       <c r="B83" t="n">
-        <v>6.02128645194568</v>
+        <v>6.26655838381468</v>
       </c>
       <c r="C83" t="n">
-        <v>0.568530047276108</v>
+        <v>1.5380295608144</v>
       </c>
       <c r="D83" t="n">
-        <v>0.358085066080093</v>
+        <v>0.406516849994659</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.17285043138531</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6.25924316593078</v>
+        <v>6.64586972991214</v>
       </c>
       <c r="B84" t="n">
-        <v>5.43716052964261</v>
+        <v>5.36617701282116</v>
       </c>
       <c r="C84" t="n">
-        <v>0.277408252766742</v>
+        <v>0.625270131492683</v>
       </c>
       <c r="D84" t="n">
-        <v>0.441992998123169</v>
+        <v>0.423195093870163</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.1995953700119882</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6.20630532559962</v>
+        <v>6.3707181146385</v>
       </c>
       <c r="B85" t="n">
-        <v>5.48588472604768</v>
+        <v>5.9694438790067</v>
       </c>
       <c r="C85" t="n">
-        <v>0.791107555202598</v>
+        <v>0.601750454389149</v>
       </c>
       <c r="D85" t="n">
-        <v>0.546137630939484</v>
+        <v>0.630075931549072</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4301608221170052</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.01882963949304</v>
+        <v>6.19904887912195</v>
       </c>
       <c r="B86" t="n">
-        <v>5.62081886680387</v>
+        <v>5.31784140919268</v>
       </c>
       <c r="C86" t="n">
-        <v>0.26797427667197</v>
+        <v>0.592380535787676</v>
       </c>
       <c r="D86" t="n">
-        <v>0.479030162096024</v>
+        <v>0.400262355804443</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.4495282980732311</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6.10242726607984</v>
+        <v>6.41129448523961</v>
       </c>
       <c r="B87" t="n">
-        <v>5.66181827555717</v>
+        <v>5.49278123282635</v>
       </c>
       <c r="C87" t="n">
-        <v>1.597245766359</v>
+        <v>0.275068347072641</v>
       </c>
       <c r="D87" t="n">
-        <v>0.497615098953247</v>
+        <v>0.497895002365112</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.8603079734480956</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7.6033823819909</v>
+        <v>8.57866188043711</v>
       </c>
       <c r="B88" t="n">
-        <v>6.72677038287148</v>
+        <v>5.84407026355402</v>
       </c>
       <c r="C88" t="n">
-        <v>1.48316831634838</v>
+        <v>1.10416278938281</v>
       </c>
       <c r="D88" t="n">
-        <v>0.410927474498749</v>
+        <v>0.453572422266006</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.411412553759749</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6.6273249820644</v>
+        <v>7.33097975187607</v>
       </c>
       <c r="B89" t="n">
-        <v>6.26655838381468</v>
+        <v>6.16600985441456</v>
       </c>
       <c r="C89" t="n">
-        <v>1.5380295608144</v>
+        <v>1.1715207409779</v>
       </c>
       <c r="D89" t="n">
-        <v>0.406516849994659</v>
+        <v>0.521388053894043</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9104929300671992</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6.64586972991214</v>
+        <v>4.97821058238987</v>
       </c>
       <c r="B90" t="n">
-        <v>5.36617701282116</v>
+        <v>3.97918566593001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.625270131492683</v>
+        <v>0.504618653399221</v>
       </c>
       <c r="D90" t="n">
-        <v>0.423195093870163</v>
+        <v>0.728044925332069</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-1.260067704547395</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.3707181146385</v>
+        <v>5.83236066205519</v>
       </c>
       <c r="B91" t="n">
-        <v>5.9694438790067</v>
+        <v>5.18237721572322</v>
       </c>
       <c r="C91" t="n">
-        <v>0.601750454389149</v>
+        <v>1.49108811849546</v>
       </c>
       <c r="D91" t="n">
-        <v>0.630075931549072</v>
+        <v>0.487745583057404</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.7036291517619061</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.19904887912195</v>
+        <v>7.20983347814443</v>
       </c>
       <c r="B92" t="n">
-        <v>5.31784140919268</v>
+        <v>6.68194375797084</v>
       </c>
       <c r="C92" t="n">
-        <v>0.592380535787676</v>
+        <v>0.608242398138471</v>
       </c>
       <c r="D92" t="n">
-        <v>0.400262355804443</v>
+        <v>0.581959187984467</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.0128526579464455</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6.41129448523961</v>
+        <v>7.83380226347156</v>
       </c>
       <c r="B93" t="n">
-        <v>5.49278123282635</v>
+        <v>6.31229221673552</v>
       </c>
       <c r="C93" t="n">
-        <v>0.275068347072641</v>
+        <v>1.03354619270135</v>
       </c>
       <c r="D93" t="n">
-        <v>0.497895002365112</v>
+        <v>0.505701303482056</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9421785216100316</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5.55409459946357</v>
+        <v>5.45389274529536</v>
       </c>
       <c r="B94" t="n">
-        <v>6.53393185714648</v>
+        <v>5.17253951675425</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.0691957619283316</v>
+        <v>0.919869632701607</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5536128282547</v>
+        <v>0.411883175373077</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.3073448221962944</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.57866188043711</v>
+        <v>6.13502773385161</v>
       </c>
       <c r="B95" t="n">
-        <v>5.84407026355402</v>
+        <v>5.69877794332049</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10416278938281</v>
+        <v>0.279908936939081</v>
       </c>
       <c r="D95" t="n">
-        <v>0.453572422266006</v>
+        <v>0.417963296175003</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.9548543454865129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.33097975187607</v>
+        <v>5.67278910391314</v>
       </c>
       <c r="B96" t="n">
-        <v>6.16600985441456</v>
+        <v>5.43433632264436</v>
       </c>
       <c r="C96" t="n">
-        <v>1.1715207409779</v>
+        <v>0.327664757229708</v>
       </c>
       <c r="D96" t="n">
-        <v>0.521388053894043</v>
+        <v>0.439823359251022</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-1.105707380401155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4.97821058238987</v>
+        <v>8.25795681001815</v>
       </c>
       <c r="B97" t="n">
-        <v>3.97918566593001</v>
+        <v>6.65196346584553</v>
       </c>
       <c r="C97" t="n">
-        <v>0.504618653399221</v>
+        <v>0.833948939509909</v>
       </c>
       <c r="D97" t="n">
-        <v>0.728044925332069</v>
+        <v>0.498600095510483</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.8420080006013855</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.83236066205519</v>
+        <v>7.5921270681771</v>
       </c>
       <c r="B98" t="n">
-        <v>5.18237721572322</v>
+        <v>5.97453926137571</v>
       </c>
       <c r="C98" t="n">
-        <v>1.49108811849546</v>
+        <v>0.411993249805292</v>
       </c>
       <c r="D98" t="n">
-        <v>0.487745583057404</v>
+        <v>0.527891278266907</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.1138138227170398</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.20983347814443</v>
+        <v>6.24879346315247</v>
       </c>
       <c r="B99" t="n">
-        <v>6.68194375797084</v>
+        <v>5.03944588487802</v>
       </c>
       <c r="C99" t="n">
-        <v>0.608242398138471</v>
+        <v>0.631085371781466</v>
       </c>
       <c r="D99" t="n">
-        <v>0.581959187984467</v>
+        <v>0.414239764213562</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.3732150365014519</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7.83380226347156</v>
+        <v>6.36278566036039</v>
       </c>
       <c r="B100" t="n">
-        <v>6.31229221673552</v>
+        <v>5.94872049568263</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03354619270135</v>
+        <v>0.40121518462823</v>
       </c>
       <c r="D100" t="n">
-        <v>0.505701303482056</v>
+        <v>0.374509215354919</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.6515153191744094</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5.45389274529536</v>
+        <v>5.37956780615813</v>
       </c>
       <c r="B101" t="n">
-        <v>5.17253951675425</v>
+        <v>4.96113109919317</v>
       </c>
       <c r="C101" t="n">
-        <v>0.919869632701607</v>
+        <v>0.783065066539996</v>
       </c>
       <c r="D101" t="n">
-        <v>0.411883175373077</v>
+        <v>0.405701011419296</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.546194815730262</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6.13502773385161</v>
+        <v>6.26915745607762</v>
       </c>
       <c r="B102" t="n">
-        <v>5.69877794332049</v>
+        <v>6.2716865032429</v>
       </c>
       <c r="C102" t="n">
-        <v>0.279908936939081</v>
+        <v>0.48915761420492</v>
       </c>
       <c r="D102" t="n">
-        <v>0.417963296175003</v>
+        <v>0.549554765224457</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.6198317873899363</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5.67278910391314</v>
+        <v>4.64592721839835</v>
       </c>
       <c r="B103" t="n">
-        <v>5.43433632264436</v>
+        <v>4.97450931183184</v>
       </c>
       <c r="C103" t="n">
-        <v>0.327664757229708</v>
+        <v>0.91525244389122</v>
       </c>
       <c r="D103" t="n">
-        <v>0.439823359251022</v>
+        <v>0.235689267516136</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.6324955135549961</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.25795681001815</v>
+        <v>7.50898890467056</v>
       </c>
       <c r="B104" t="n">
-        <v>6.65196346584553</v>
+        <v>6.4259728498247</v>
       </c>
       <c r="C104" t="n">
-        <v>0.833948939509909</v>
+        <v>0.983116286743968</v>
       </c>
       <c r="D104" t="n">
-        <v>0.498600095510483</v>
+        <v>0.512972295284271</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.7129375687431981</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7.5921270681771</v>
+        <v>6.07188810532567</v>
       </c>
       <c r="B105" t="n">
-        <v>5.97453926137571</v>
+        <v>4.80905206668036</v>
       </c>
       <c r="C105" t="n">
-        <v>0.411993249805292</v>
+        <v>1.07995364141324</v>
       </c>
       <c r="D105" t="n">
-        <v>0.527891278266907</v>
+        <v>0.48140287399292</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1976230697913742</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6.24879346315247</v>
+        <v>7.45824901580315</v>
       </c>
       <c r="B106" t="n">
-        <v>5.03944588487802</v>
+        <v>6.57578602075392</v>
       </c>
       <c r="C106" t="n">
-        <v>0.631085371781466</v>
+        <v>0.301043923778069</v>
       </c>
       <c r="D106" t="n">
-        <v>0.414239764213562</v>
+        <v>0.548600852489471</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.3488924130152178</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6.36278566036039</v>
+        <v>5.10866722112935</v>
       </c>
       <c r="B107" t="n">
-        <v>5.94872049568263</v>
+        <v>5.15719100070607</v>
       </c>
       <c r="C107" t="n">
-        <v>0.40121518462823</v>
+        <v>0.542536162152309</v>
       </c>
       <c r="D107" t="n">
-        <v>0.374509215354919</v>
+        <v>0.231708511710167</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.9766168474879161</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.37956780615813</v>
+        <v>7.65717220085176</v>
       </c>
       <c r="B108" t="n">
-        <v>4.96113109919317</v>
+        <v>6.3645973074082</v>
       </c>
       <c r="C108" t="n">
-        <v>0.783065066539996</v>
+        <v>1.15002366665162</v>
       </c>
       <c r="D108" t="n">
-        <v>0.405701011419296</v>
+        <v>0.580729603767395</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.010691777718373</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6.26915745607762</v>
+        <v>4.64592721839835</v>
       </c>
       <c r="B109" t="n">
-        <v>6.2716865032429</v>
+        <v>4.97450931183184</v>
       </c>
       <c r="C109" t="n">
-        <v>0.48915761420492</v>
+        <v>0.91525244389122</v>
       </c>
       <c r="D109" t="n">
-        <v>0.549554765224457</v>
+        <v>0.235689267516136</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.6324955135549961</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4.64592721839835</v>
+        <v>7.59117126467687</v>
       </c>
       <c r="B110" t="n">
-        <v>4.97450931183184</v>
+        <v>5.23033078310041</v>
       </c>
       <c r="C110" t="n">
-        <v>0.91525244389122</v>
+        <v>0.980396717160213</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235689267516136</v>
+        <v>0.361562788486481</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.7948957332073584</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>7.50898890467056</v>
+        <v>6.85068840212902</v>
       </c>
       <c r="B111" t="n">
-        <v>6.4259728498247</v>
+        <v>6.19411771318969</v>
       </c>
       <c r="C111" t="n">
-        <v>0.983116286743968</v>
+        <v>0.838496282294912</v>
       </c>
       <c r="D111" t="n">
-        <v>0.512972295284271</v>
+        <v>0.555789470672607</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.1744213364634064</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6.07188810532567</v>
+        <v>5.02591069548854</v>
       </c>
       <c r="B112" t="n">
-        <v>4.80905206668036</v>
+        <v>5.53630647182909</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07995364141324</v>
+        <v>0.902415519601043</v>
       </c>
       <c r="D112" t="n">
-        <v>0.48140287399292</v>
+        <v>0.353500247001648</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.5128691386935544</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>7.45824901580315</v>
+        <v>7.82371915744554</v>
       </c>
       <c r="B113" t="n">
-        <v>6.57578602075392</v>
+        <v>6.26490594879784</v>
       </c>
       <c r="C113" t="n">
-        <v>0.301043923778069</v>
+        <v>1.22533397096587</v>
       </c>
       <c r="D113" t="n">
-        <v>0.548600852489471</v>
+        <v>0.425565630197525</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.252522044472714</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.10866722112935</v>
+        <v>5.16315092367136</v>
       </c>
       <c r="B114" t="n">
-        <v>5.15719100070607</v>
+        <v>4.31329217560972</v>
       </c>
       <c r="C114" t="n">
-        <v>0.542536162152309</v>
+        <v>0.900968559900136</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231708511710167</v>
+        <v>0.463854849338531</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.4897118288828518</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7.65717220085176</v>
+        <v>6.92122515155003</v>
       </c>
       <c r="B115" t="n">
-        <v>6.3645973074082</v>
+        <v>6.22042198503181</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15002366665162</v>
+        <v>1.87225413769812</v>
       </c>
       <c r="D115" t="n">
-        <v>0.580729603767395</v>
+        <v>0.437175214290619</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.802526522029602</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.64592721839835</v>
+        <v>6.29670463400807</v>
       </c>
       <c r="B116" t="n">
-        <v>4.97450931183184</v>
+        <v>5.90494185617347</v>
       </c>
       <c r="C116" t="n">
-        <v>0.91525244389122</v>
+        <v>0.586377339921209</v>
       </c>
       <c r="D116" t="n">
-        <v>0.235689267516136</v>
+        <v>0.360002666711807</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.3988275729668794</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7.59117126467687</v>
+        <v>7.65717220085176</v>
       </c>
       <c r="B117" t="n">
-        <v>5.23033078310041</v>
+        <v>6.3645973074082</v>
       </c>
       <c r="C117" t="n">
-        <v>0.980396717160213</v>
+        <v>1.15002366665162</v>
       </c>
       <c r="D117" t="n">
-        <v>0.361562788486481</v>
+        <v>0.580729603767395</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.010691777718373</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6.85068840212902</v>
+        <v>6.92080969805585</v>
       </c>
       <c r="B118" t="n">
-        <v>6.19411771318969</v>
+        <v>5.75998848990574</v>
       </c>
       <c r="C118" t="n">
-        <v>0.838496282294912</v>
+        <v>1.4514529690388</v>
       </c>
       <c r="D118" t="n">
-        <v>0.555789470672607</v>
+        <v>0.345938563346863</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.198158770687385</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.02591069548854</v>
+        <v>6.92080969805585</v>
       </c>
       <c r="B119" t="n">
-        <v>5.53630647182909</v>
+        <v>5.75998848990574</v>
       </c>
       <c r="C119" t="n">
-        <v>0.902415519601043</v>
+        <v>1.4514529690388</v>
       </c>
       <c r="D119" t="n">
-        <v>0.353500247001648</v>
+        <v>0.345938563346863</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.198158770687385</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>7.82371915744554</v>
+        <v>6.14115852486116</v>
       </c>
       <c r="B120" t="n">
-        <v>6.26490594879784</v>
+        <v>5.71678636799906</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22533397096587</v>
+        <v>0.5466896193758179</v>
       </c>
       <c r="D120" t="n">
-        <v>0.425565630197525</v>
+        <v>0.454865515232086</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.5625430834114967</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5.16315092367136</v>
+        <v>4.64592721839835</v>
       </c>
       <c r="B121" t="n">
-        <v>4.31329217560972</v>
+        <v>4.97450931183184</v>
       </c>
       <c r="C121" t="n">
-        <v>0.900968559900136</v>
+        <v>0.91525244389122</v>
       </c>
       <c r="D121" t="n">
-        <v>0.463854849338531</v>
+        <v>0.235689267516136</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.6324955135549961</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6.92122515155003</v>
+        <v>6.27239179451022</v>
       </c>
       <c r="B122" t="n">
-        <v>6.22042198503181</v>
+        <v>5.88411190517762</v>
       </c>
       <c r="C122" t="n">
-        <v>1.87225413769812</v>
+        <v>0.592436568385625</v>
       </c>
       <c r="D122" t="n">
-        <v>0.437175214290619</v>
+        <v>0.44368988275528</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.4286413857726908</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6.29670463400807</v>
+        <v>5.66655851333314</v>
       </c>
       <c r="B123" t="n">
-        <v>5.90494185617347</v>
+        <v>5.6682362143026</v>
       </c>
       <c r="C123" t="n">
-        <v>0.586377339921209</v>
+        <v>0.532045856931708</v>
       </c>
       <c r="D123" t="n">
-        <v>0.360002666711807</v>
+        <v>0.606245517730713</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.855394876087999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7.65717220085176</v>
+        <v>5.5583997988463</v>
       </c>
       <c r="B124" t="n">
-        <v>6.3645973074082</v>
+        <v>5.50272820784507</v>
       </c>
       <c r="C124" t="n">
-        <v>1.15002366665162</v>
+        <v>0.3593782556837</v>
       </c>
       <c r="D124" t="n">
-        <v>0.580729603767395</v>
+        <v>0.543599247932434</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-1.145279754992104</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.92080969805585</v>
+        <v>6.36696087727938</v>
       </c>
       <c r="B125" t="n">
-        <v>5.75998848990574</v>
+        <v>6.64003863777605</v>
       </c>
       <c r="C125" t="n">
-        <v>1.4514529690388</v>
+        <v>0.491897318313386</v>
       </c>
       <c r="D125" t="n">
-        <v>0.345938563346863</v>
+        <v>0.664708495140076</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.6075142302775681</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>6.92080969805585</v>
+        <v>5.06702381905521</v>
       </c>
       <c r="B126" t="n">
-        <v>5.75998848990574</v>
+        <v>4.05550085643696</v>
       </c>
       <c r="C126" t="n">
-        <v>1.4514529690388</v>
+        <v>0.674027088391169</v>
       </c>
       <c r="D126" t="n">
-        <v>0.345938563346863</v>
+        <v>0.382641345262527</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.8497397322644848</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>6.14115852486116</v>
+        <v>7.50898890467056</v>
       </c>
       <c r="B127" t="n">
-        <v>5.71678636799906</v>
+        <v>6.4259728498247</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5466896193758179</v>
+        <v>0.983116286743968</v>
       </c>
       <c r="D127" t="n">
-        <v>0.454865515232086</v>
+        <v>0.512972295284271</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7129375687431981</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.64592721839835</v>
+        <v>7.78821072865934</v>
       </c>
       <c r="B128" t="n">
-        <v>4.97450931183184</v>
+        <v>5.91044855727106</v>
       </c>
       <c r="C128" t="n">
-        <v>0.91525244389122</v>
+        <v>1.04850393206825</v>
       </c>
       <c r="D128" t="n">
-        <v>0.235689267516136</v>
+        <v>0.5065015554428099</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9425137024737759</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6.27239179451022</v>
+        <v>7.82371915744554</v>
       </c>
       <c r="B129" t="n">
-        <v>5.88411190517762</v>
+        <v>6.26490594879784</v>
       </c>
       <c r="C129" t="n">
-        <v>0.592436568385625</v>
+        <v>1.22533397096587</v>
       </c>
       <c r="D129" t="n">
-        <v>0.44368988275528</v>
+        <v>0.425565630197525</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.252522044472714</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5.66655851333314</v>
+        <v>5.85076725492955</v>
       </c>
       <c r="B130" t="n">
-        <v>5.6682362143026</v>
+        <v>5.70651475873277</v>
       </c>
       <c r="C130" t="n">
-        <v>0.532045856931708</v>
+        <v>0.453422816453154</v>
       </c>
       <c r="D130" t="n">
-        <v>0.606245517730713</v>
+        <v>0.356864601373672</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.8057676013878751</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5.5583997988463</v>
+        <v>6.5496876514239</v>
       </c>
       <c r="B131" t="n">
-        <v>5.50272820784507</v>
+        <v>6.23574493139823</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3593782556837</v>
+        <v>0.297712059961219</v>
       </c>
       <c r="D131" t="n">
-        <v>0.543599247932434</v>
+        <v>0.426919877529144</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.7371319534509596</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>6.36696087727938</v>
+        <v>6.07188810532567</v>
       </c>
       <c r="B132" t="n">
-        <v>6.64003863777605</v>
+        <v>4.80905206668036</v>
       </c>
       <c r="C132" t="n">
-        <v>0.491897318313386</v>
+        <v>1.07995364141324</v>
       </c>
       <c r="D132" t="n">
-        <v>0.664708495140076</v>
+        <v>0.48140287399292</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.1976230697913742</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.06702381905521</v>
+        <v>6.89018624336183</v>
       </c>
       <c r="B133" t="n">
-        <v>4.05550085643696</v>
+        <v>5.92123910221849</v>
       </c>
       <c r="C133" t="n">
-        <v>0.674027088391169</v>
+        <v>0.2574622177705</v>
       </c>
       <c r="D133" t="n">
-        <v>0.382641345262527</v>
+        <v>0.441405415534973</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.644618972944783</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>7.50898890467056</v>
+        <v>6.36241170671041</v>
       </c>
       <c r="B134" t="n">
-        <v>6.4259728498247</v>
+        <v>5.817322841559</v>
       </c>
       <c r="C134" t="n">
-        <v>0.983116286743968</v>
+        <v>0.411275493283736</v>
       </c>
       <c r="D134" t="n">
-        <v>0.512972295284271</v>
+        <v>0.558089852333069</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.6972898028111501</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7.78821072865934</v>
+        <v>7.50898890467056</v>
       </c>
       <c r="B135" t="n">
-        <v>5.91044855727106</v>
+        <v>6.4259728498247</v>
       </c>
       <c r="C135" t="n">
-        <v>1.04850393206825</v>
+        <v>0.983116286743968</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5065015554428099</v>
+        <v>0.512972295284271</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.7129375687431981</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7.82371915744554</v>
+        <v>6.88527160488974</v>
       </c>
       <c r="B136" t="n">
-        <v>6.26490594879784</v>
+        <v>6.32745613003092</v>
       </c>
       <c r="C136" t="n">
-        <v>1.22533397096587</v>
+        <v>0.661836147541164</v>
       </c>
       <c r="D136" t="n">
-        <v>0.425565630197525</v>
+        <v>0.564996361732483</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.07821960136676509</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5.85076725492955</v>
+        <v>6.92122515155003</v>
       </c>
       <c r="B137" t="n">
-        <v>5.70651475873277</v>
+        <v>6.22042198503181</v>
       </c>
       <c r="C137" t="n">
-        <v>0.453422816453154</v>
+        <v>1.87225413769812</v>
       </c>
       <c r="D137" t="n">
-        <v>0.356864601373672</v>
+        <v>0.437175214290619</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.802526522029602</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7.82371915744554</v>
+        <v>4.4985638946739</v>
       </c>
       <c r="B138" t="n">
-        <v>6.26490594879784</v>
+        <v>4.28059262973486</v>
       </c>
       <c r="C138" t="n">
-        <v>1.22533397096587</v>
+        <v>0.697418989842676</v>
       </c>
       <c r="D138" t="n">
-        <v>0.425565630197525</v>
+        <v>0.406595498323441</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-1.086523584553005</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.5496876514239</v>
+        <v>6.37323514435648</v>
       </c>
       <c r="B139" t="n">
-        <v>6.23574493139823</v>
+        <v>4.74372986692895</v>
       </c>
       <c r="C139" t="n">
-        <v>0.297712059961219</v>
+        <v>0.872821215948572</v>
       </c>
       <c r="D139" t="n">
-        <v>0.426919877529144</v>
+        <v>0.418297231197357</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.04672051225513019</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.07188810532567</v>
+        <v>6.92122515155003</v>
       </c>
       <c r="B140" t="n">
-        <v>4.80905206668036</v>
+        <v>6.22042198503181</v>
       </c>
       <c r="C140" t="n">
-        <v>1.07995364141324</v>
+        <v>1.87225413769812</v>
       </c>
       <c r="D140" t="n">
-        <v>0.48140287399292</v>
+        <v>0.437175214290619</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.802526522029602</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.89018624336183</v>
+        <v>7.27805596936935</v>
       </c>
       <c r="B141" t="n">
-        <v>5.92123910221849</v>
+        <v>5.94612761619445</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2574622177705</v>
+        <v>0.0733513100429769</v>
       </c>
       <c r="D141" t="n">
-        <v>0.441405415534973</v>
+        <v>0.510643124580383</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.7640757700161593</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.36241170671041</v>
+        <v>6.15655580283603</v>
       </c>
       <c r="B142" t="n">
-        <v>5.817322841559</v>
+        <v>5.57409745440205</v>
       </c>
       <c r="C142" t="n">
-        <v>0.411275493283736</v>
+        <v>0.5816070553878619</v>
       </c>
       <c r="D142" t="n">
-        <v>0.558089852333069</v>
+        <v>0.571629345417023</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.5415562299087689</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.50898890467056</v>
+        <v>5.50230215524071</v>
       </c>
       <c r="B143" t="n">
-        <v>6.4259728498247</v>
+        <v>4.17399941408695</v>
       </c>
       <c r="C143" t="n">
-        <v>0.983116286743968</v>
+        <v>0.656556153844592</v>
       </c>
       <c r="D143" t="n">
-        <v>0.512972295284271</v>
+        <v>0.434758961200714</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.6904835679770015</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6.88527160488974</v>
+        <v>6.92122515155003</v>
       </c>
       <c r="B144" t="n">
-        <v>6.32745613003092</v>
+        <v>6.22042198503181</v>
       </c>
       <c r="C144" t="n">
-        <v>0.661836147541164</v>
+        <v>1.87225413769812</v>
       </c>
       <c r="D144" t="n">
-        <v>0.564996361732483</v>
+        <v>0.437175214290619</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.802526522029602</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6.92122515155003</v>
+        <v>6.4067915333126</v>
       </c>
       <c r="B145" t="n">
-        <v>6.22042198503181</v>
+        <v>6.42758339630715</v>
       </c>
       <c r="C145" t="n">
-        <v>1.87225413769812</v>
+        <v>0.786439957066514</v>
       </c>
       <c r="D145" t="n">
-        <v>0.437175214290619</v>
+        <v>0.564066708087921</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.1127971695934347</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>4.4985638946739</v>
+        <v>5.5583997988463</v>
       </c>
       <c r="B146" t="n">
-        <v>4.28059262973486</v>
+        <v>5.50272820784507</v>
       </c>
       <c r="C146" t="n">
-        <v>0.697418989842676</v>
+        <v>0.3593782556837</v>
       </c>
       <c r="D146" t="n">
-        <v>0.406595498323441</v>
+        <v>0.543599247932434</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-1.145279754992104</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6.37323514435648</v>
+        <v>6.08702151463953</v>
       </c>
       <c r="B147" t="n">
-        <v>4.74372986692895</v>
+        <v>5.87255650238401</v>
       </c>
       <c r="C147" t="n">
-        <v>0.872821215948572</v>
+        <v>0.514853762489506</v>
       </c>
       <c r="D147" t="n">
-        <v>0.418297231197357</v>
+        <v>0.515827119350433</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.6554773143805465</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6.92122515155003</v>
+        <v>6.36241170671041</v>
       </c>
       <c r="B148" t="n">
-        <v>6.22042198503181</v>
+        <v>5.817322841559</v>
       </c>
       <c r="C148" t="n">
-        <v>1.87225413769812</v>
+        <v>0.411275493283736</v>
       </c>
       <c r="D148" t="n">
-        <v>0.437175214290619</v>
+        <v>0.558089852333069</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.6972898028111501</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>7.27805596936935</v>
+        <v>5.43203324215453</v>
       </c>
       <c r="B149" t="n">
-        <v>5.94612761619445</v>
+        <v>5.66874846277871</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0733513100429769</v>
+        <v>1.04500201792434</v>
       </c>
       <c r="D149" t="n">
-        <v>0.510643124580383</v>
+        <v>0.571455359458923</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.1808814404532761</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>6.15655580283603</v>
+        <v>5.29664096216709</v>
       </c>
       <c r="B150" t="n">
-        <v>5.57409745440205</v>
+        <v>5.47614267765857</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5816070553878619</v>
+        <v>0.741226622047031</v>
       </c>
       <c r="D150" t="n">
-        <v>0.571629345417023</v>
+        <v>0.388709783554077</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.6412561407310349</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5.50230215524071</v>
+        <v>7.55830023551986</v>
       </c>
       <c r="B151" t="n">
-        <v>4.17399941408695</v>
+        <v>6.64791669066798</v>
       </c>
       <c r="C151" t="n">
-        <v>0.656556153844592</v>
+        <v>0.324133257674551</v>
       </c>
       <c r="D151" t="n">
-        <v>0.434758961200714</v>
+        <v>0.522575914859772</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.2588782677569357</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>6.92122515155003</v>
+        <v>6.71343105753803</v>
       </c>
       <c r="B152" t="n">
-        <v>6.22042198503181</v>
+        <v>6.51520675866959</v>
       </c>
       <c r="C152" t="n">
-        <v>1.87225413769812</v>
+        <v>0.453946938033142</v>
       </c>
       <c r="D152" t="n">
-        <v>0.437175214290619</v>
+        <v>0.563477694988251</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.4702849874233969</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>6.4067915333126</v>
+        <v>5.74084477035797</v>
       </c>
       <c r="B153" t="n">
-        <v>6.42758339630715</v>
+        <v>6.00604284930753</v>
       </c>
       <c r="C153" t="n">
-        <v>0.786439957066514</v>
+        <v>0.405203651312522</v>
       </c>
       <c r="D153" t="n">
-        <v>0.564066708087921</v>
+        <v>0.416249543428421</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.9485483607890796</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5.5583997988463</v>
+        <v>7.090327637656</v>
       </c>
       <c r="B154" t="n">
-        <v>5.50272820784507</v>
+        <v>6.60133915087049</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3593782556837</v>
+        <v>0.391924063544438</v>
       </c>
       <c r="D154" t="n">
-        <v>0.543599247932434</v>
+        <v>0.538897812366486</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.3800326664651587</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6.08702151463953</v>
+        <v>7.9229377691443</v>
       </c>
       <c r="B155" t="n">
-        <v>5.87255650238401</v>
+        <v>6.317755656606</v>
       </c>
       <c r="C155" t="n">
-        <v>0.514853762489506</v>
+        <v>0.428987895676483</v>
       </c>
       <c r="D155" t="n">
-        <v>0.515827119350433</v>
+        <v>0.5776007771492</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.04990485545229876</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6.36241170671041</v>
+        <v>6.32069509013238</v>
       </c>
       <c r="B156" t="n">
-        <v>5.817322841559</v>
+        <v>3.94696430080948</v>
       </c>
       <c r="C156" t="n">
-        <v>0.411275493283736</v>
+        <v>-0.102143315008048</v>
       </c>
       <c r="D156" t="n">
-        <v>0.558089852333069</v>
+        <v>0.554606854915619</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-1.491691484245771</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.92122515155003</v>
+        <v>7.98860439924325</v>
       </c>
       <c r="B157" t="n">
-        <v>6.22042198503181</v>
+        <v>6.59788917126083</v>
       </c>
       <c r="C157" t="n">
-        <v>1.87225413769812</v>
+        <v>0.463346526993485</v>
       </c>
       <c r="D157" t="n">
-        <v>0.437175214290619</v>
+        <v>0.579468965530396</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.132054456634946</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5.43203324215453</v>
+        <v>6.22780108696572</v>
       </c>
       <c r="B158" t="n">
-        <v>5.66874846277871</v>
+        <v>5.95965209564557</v>
       </c>
       <c r="C158" t="n">
-        <v>1.04500201792434</v>
+        <v>0.2802788644035</v>
       </c>
       <c r="D158" t="n">
-        <v>0.571455359458923</v>
+        <v>0.377404421567917</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.8973048584378345</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5.29664096216709</v>
+        <v>7.65717220085176</v>
       </c>
       <c r="B159" t="n">
-        <v>5.47614267765857</v>
+        <v>6.3645973074082</v>
       </c>
       <c r="C159" t="n">
-        <v>0.741226622047031</v>
+        <v>1.15002366665162</v>
       </c>
       <c r="D159" t="n">
-        <v>0.388709783554077</v>
+        <v>0.580729603767395</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.010691777718373</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>7.55830023551986</v>
+        <v>6.36241170671041</v>
       </c>
       <c r="B160" t="n">
-        <v>6.64791669066798</v>
+        <v>5.817322841559</v>
       </c>
       <c r="C160" t="n">
-        <v>0.324133257674551</v>
+        <v>0.411275493283736</v>
       </c>
       <c r="D160" t="n">
-        <v>0.522575914859772</v>
+        <v>0.558089852333069</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.6972898028111501</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6.71343105753803</v>
+        <v>6.14115852486116</v>
       </c>
       <c r="B161" t="n">
-        <v>6.51520675866959</v>
+        <v>5.71678636799906</v>
       </c>
       <c r="C161" t="n">
-        <v>0.453946938033142</v>
+        <v>0.5466896193758179</v>
       </c>
       <c r="D161" t="n">
-        <v>0.563477694988251</v>
+        <v>0.454865515232086</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.5625430834114967</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.74084477035797</v>
+        <v>6.14115852486116</v>
       </c>
       <c r="B162" t="n">
-        <v>6.00604284930753</v>
+        <v>5.71678636799906</v>
       </c>
       <c r="C162" t="n">
-        <v>0.405203651312522</v>
+        <v>0.5466896193758179</v>
       </c>
       <c r="D162" t="n">
-        <v>0.416249543428421</v>
+        <v>0.454865515232086</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.5625430834114967</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7.82371915744554</v>
+        <v>6.92122515155003</v>
       </c>
       <c r="B163" t="n">
-        <v>6.26490594879784</v>
+        <v>6.22042198503181</v>
       </c>
       <c r="C163" t="n">
-        <v>1.22533397096587</v>
+        <v>1.87225413769812</v>
       </c>
       <c r="D163" t="n">
-        <v>0.425565630197525</v>
+        <v>0.437175214290619</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.802526522029602</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>7.090327637656</v>
+        <v>6.6392073751637</v>
       </c>
       <c r="B164" t="n">
-        <v>6.60133915087049</v>
+        <v>6.46856690091954</v>
       </c>
       <c r="C164" t="n">
-        <v>0.391924063544438</v>
+        <v>0.291750412263449</v>
       </c>
       <c r="D164" t="n">
-        <v>0.538897812366486</v>
+        <v>0.586497068405151</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.7566479879854073</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>7.9229377691443</v>
+        <v>7.82371915744554</v>
       </c>
       <c r="B165" t="n">
-        <v>6.317755656606</v>
+        <v>6.26490594879784</v>
       </c>
       <c r="C165" t="n">
-        <v>0.428987895676483</v>
+        <v>1.22533397096587</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5776007771492</v>
+        <v>0.425565630197525</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.252522044472714</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>6.32069509013238</v>
+        <v>6.27239179451022</v>
       </c>
       <c r="B166" t="n">
-        <v>3.94696430080948</v>
+        <v>5.88411190517762</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.102143315008048</v>
+        <v>0.592436568385625</v>
       </c>
       <c r="D166" t="n">
-        <v>0.554606854915619</v>
+        <v>0.44368988275528</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.4286413857726908</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7.98860439924325</v>
+        <v>6.36241170671041</v>
       </c>
       <c r="B167" t="n">
-        <v>6.59788917126083</v>
+        <v>5.817322841559</v>
       </c>
       <c r="C167" t="n">
-        <v>0.463346526993485</v>
+        <v>0.411275493283736</v>
       </c>
       <c r="D167" t="n">
-        <v>0.579468965530396</v>
+        <v>0.558089852333069</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.6972898028111501</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>6.22780108696572</v>
+        <v>5.90373736853897</v>
       </c>
       <c r="B168" t="n">
-        <v>5.95965209564557</v>
+        <v>6.79093889395685</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2802788644035</v>
+        <v>0.883207325749664</v>
       </c>
       <c r="D168" t="n">
-        <v>0.377404421567917</v>
+        <v>0.627886891365051</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.221593817062341</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>7.65717220085176</v>
+        <v>6.85068840212902</v>
       </c>
       <c r="B169" t="n">
-        <v>6.3645973074082</v>
+        <v>6.19411771318969</v>
       </c>
       <c r="C169" t="n">
-        <v>1.15002366665162</v>
+        <v>0.838496282294912</v>
       </c>
       <c r="D169" t="n">
-        <v>0.580729603767395</v>
+        <v>0.555789470672607</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.1744213364634064</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>6.36241170671041</v>
+        <v>6.21868378153063</v>
       </c>
       <c r="B170" t="n">
-        <v>5.817322841559</v>
+        <v>5.02585722921184</v>
       </c>
       <c r="C170" t="n">
-        <v>0.411275493283736</v>
+        <v>0.4155491305424</v>
       </c>
       <c r="D170" t="n">
-        <v>0.558089852333069</v>
+        <v>0.518204629421234</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.7459704599378846</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>7.82371915744554</v>
+        <v>6.37323514435648</v>
       </c>
       <c r="B171" t="n">
-        <v>6.26490594879784</v>
+        <v>4.74372986692895</v>
       </c>
       <c r="C171" t="n">
-        <v>1.22533397096587</v>
+        <v>0.872821215948572</v>
       </c>
       <c r="D171" t="n">
-        <v>0.425565630197525</v>
+        <v>0.418297231197357</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.04672051225513019</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>6.92122515155003</v>
+        <v>7.50898890467056</v>
       </c>
       <c r="B172" t="n">
-        <v>6.22042198503181</v>
+        <v>6.4259728498247</v>
       </c>
       <c r="C172" t="n">
-        <v>1.87225413769812</v>
+        <v>0.983116286743968</v>
       </c>
       <c r="D172" t="n">
-        <v>0.437175214290619</v>
+        <v>0.512972295284271</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.7129375687431981</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>6.14115852486116</v>
+        <v>5.24565207877627</v>
       </c>
       <c r="B173" t="n">
-        <v>5.71678636799906</v>
+        <v>3.05407190748552</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5466896193758179</v>
+        <v>0.741401031482825</v>
       </c>
       <c r="D173" t="n">
-        <v>0.454865515232086</v>
+        <v>0.161586359143257</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.5940956658286608</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>6.14115852486116</v>
+        <v>8.25354113810452</v>
       </c>
       <c r="B174" t="n">
-        <v>5.71678636799906</v>
+        <v>7.16549799433442</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5466896193758179</v>
+        <v>0.9163559497517511</v>
       </c>
       <c r="D174" t="n">
-        <v>0.454865515232086</v>
+        <v>0.568216919898987</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.9419547813579306</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>6.92122515155003</v>
+        <v>7.9229377691443</v>
       </c>
       <c r="B175" t="n">
-        <v>6.22042198503181</v>
+        <v>6.317755656606</v>
       </c>
       <c r="C175" t="n">
-        <v>1.87225413769812</v>
+        <v>0.428987895676483</v>
       </c>
       <c r="D175" t="n">
-        <v>0.437175214290619</v>
+        <v>0.5776007771492</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.04990485545229876</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>6.6392073751637</v>
+        <v>7.45824901580315</v>
       </c>
       <c r="B176" t="n">
-        <v>6.46856690091954</v>
+        <v>6.57578602075392</v>
       </c>
       <c r="C176" t="n">
-        <v>0.291750412263449</v>
+        <v>0.301043923778069</v>
       </c>
       <c r="D176" t="n">
-        <v>0.586497068405151</v>
+        <v>0.548600852489471</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.3488924130152178</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>7.82371915744554</v>
+        <v>7.65717220085176</v>
       </c>
       <c r="B177" t="n">
-        <v>6.26490594879784</v>
+        <v>6.3645973074082</v>
       </c>
       <c r="C177" t="n">
-        <v>1.22533397096587</v>
+        <v>1.15002366665162</v>
       </c>
       <c r="D177" t="n">
-        <v>0.425565630197525</v>
+        <v>0.580729603767395</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.010691777718373</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6.27239179451022</v>
+        <v>6.05298100641323</v>
       </c>
       <c r="B178" t="n">
-        <v>5.88411190517762</v>
+        <v>3.29212068842412</v>
       </c>
       <c r="C178" t="n">
-        <v>0.592436568385625</v>
+        <v>0.281009482744006</v>
       </c>
       <c r="D178" t="n">
-        <v>0.44368988275528</v>
+        <v>0.548969149589539</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.038774584775906</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>6.36241170671041</v>
+        <v>6.06933859725044</v>
       </c>
       <c r="B179" t="n">
-        <v>5.817322841559</v>
+        <v>4.34847718714033</v>
       </c>
       <c r="C179" t="n">
-        <v>0.411275493283736</v>
+        <v>0.645216894224968</v>
       </c>
       <c r="D179" t="n">
-        <v>0.558089852333069</v>
+        <v>0.21364414691925</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.3705279493538985</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5.90373736853897</v>
+        <v>6.22780108696572</v>
       </c>
       <c r="B180" t="n">
-        <v>6.79093889395685</v>
+        <v>5.95965209564557</v>
       </c>
       <c r="C180" t="n">
-        <v>0.883207325749664</v>
+        <v>0.2802788644035</v>
       </c>
       <c r="D180" t="n">
-        <v>0.627886891365051</v>
+        <v>0.377404421567917</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.8973048584378345</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6.85068840212902</v>
+        <v>5.43203324215453</v>
       </c>
       <c r="B181" t="n">
-        <v>6.19411771318969</v>
+        <v>5.66874846277871</v>
       </c>
       <c r="C181" t="n">
-        <v>0.838496282294912</v>
+        <v>1.04500201792434</v>
       </c>
       <c r="D181" t="n">
-        <v>0.555789470672607</v>
+        <v>0.571455359458923</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-0.1808814404532761</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6.21868378153063</v>
+        <v>6.10518958242937</v>
       </c>
       <c r="B182" t="n">
-        <v>5.02585722921184</v>
+        <v>6.29029891859327</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4155491305424</v>
+        <v>0.54037345978688</v>
       </c>
       <c r="D182" t="n">
-        <v>0.518204629421234</v>
+        <v>0.444382011890411</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.5843257816238761</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>6.37323514435648</v>
+        <v>7.65717220085176</v>
       </c>
       <c r="B183" t="n">
-        <v>4.74372986692895</v>
+        <v>6.3645973074082</v>
       </c>
       <c r="C183" t="n">
-        <v>0.872821215948572</v>
+        <v>1.15002366665162</v>
       </c>
       <c r="D183" t="n">
-        <v>0.418297231197357</v>
+        <v>0.580729603767395</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.010691777718373</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7.50898890467056</v>
+        <v>6.92080969805585</v>
       </c>
       <c r="B184" t="n">
-        <v>6.4259728498247</v>
+        <v>5.75998848990574</v>
       </c>
       <c r="C184" t="n">
-        <v>0.983116286743968</v>
+        <v>1.4514529690388</v>
       </c>
       <c r="D184" t="n">
-        <v>0.512972295284271</v>
+        <v>0.345938563346863</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.198158770687385</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5.24565207877627</v>
+        <v>6.30766647208574</v>
       </c>
       <c r="B185" t="n">
-        <v>3.05407190748552</v>
+        <v>6.74658942794383</v>
       </c>
       <c r="C185" t="n">
-        <v>0.741401031482825</v>
+        <v>0.707741964536842</v>
       </c>
       <c r="D185" t="n">
-        <v>0.161586359143257</v>
+        <v>0.360340863466263</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.209670477022399</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>8.25354113810452</v>
+        <v>6.27239179451022</v>
       </c>
       <c r="B186" t="n">
-        <v>7.16549799433442</v>
+        <v>5.88411190517762</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9163559497517511</v>
+        <v>0.592436568385625</v>
       </c>
       <c r="D186" t="n">
-        <v>0.568216919898987</v>
+        <v>0.44368988275528</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.4286413857726908</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>7.9229377691443</v>
+        <v>6.71343105753803</v>
       </c>
       <c r="B187" t="n">
-        <v>6.317755656606</v>
+        <v>6.51520675866959</v>
       </c>
       <c r="C187" t="n">
-        <v>0.428987895676483</v>
+        <v>0.453946938033142</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5776007771492</v>
+        <v>0.563477694988251</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.4702849874233969</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>7.45824901580315</v>
+        <v>7.80334603706515</v>
       </c>
       <c r="B188" t="n">
-        <v>6.57578602075392</v>
+        <v>4.88319172017499</v>
       </c>
       <c r="C188" t="n">
-        <v>0.301043923778069</v>
+        <v>-0.102143315008048</v>
       </c>
       <c r="D188" t="n">
-        <v>0.548600852489471</v>
+        <v>0.728044925332069</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.8573693179252035</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>7.65717220085176</v>
+        <v>7.82371915744554</v>
       </c>
       <c r="B189" t="n">
-        <v>6.3645973074082</v>
+        <v>6.26490594879784</v>
       </c>
       <c r="C189" t="n">
-        <v>1.15002366665162</v>
+        <v>1.22533397096587</v>
       </c>
       <c r="D189" t="n">
-        <v>0.580729603767395</v>
+        <v>0.425565630197525</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.252522044472714</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>6.05298100641323</v>
+        <v>8.25354113810452</v>
       </c>
       <c r="B190" t="n">
-        <v>3.29212068842412</v>
+        <v>7.16549799433442</v>
       </c>
       <c r="C190" t="n">
-        <v>0.281009482744006</v>
+        <v>0.9163559497517511</v>
       </c>
       <c r="D190" t="n">
-        <v>0.548969149589539</v>
+        <v>0.568216919898987</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.9419547813579306</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>6.06933859725044</v>
+        <v>6.28242673409737</v>
       </c>
       <c r="B191" t="n">
-        <v>4.34847718714033</v>
+        <v>6.71497130524835</v>
       </c>
       <c r="C191" t="n">
-        <v>0.645216894224968</v>
+        <v>0.0901984630795219</v>
       </c>
       <c r="D191" t="n">
-        <v>0.21364414691925</v>
+        <v>0.655797600746155</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-1.248464741107578</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6.22780108696572</v>
+        <v>7.50898890467056</v>
       </c>
       <c r="B192" t="n">
-        <v>5.95965209564557</v>
+        <v>6.4259728498247</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2802788644035</v>
+        <v>0.983116286743968</v>
       </c>
       <c r="D192" t="n">
-        <v>0.377404421567917</v>
+        <v>0.512972295284271</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.7129375687431981</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5.43203324215453</v>
+        <v>5.38591515489824</v>
       </c>
       <c r="B193" t="n">
-        <v>5.66874846277871</v>
+        <v>4.81454739962802</v>
       </c>
       <c r="C193" t="n">
-        <v>1.04500201792434</v>
+        <v>1.14533028702419</v>
       </c>
       <c r="D193" t="n">
-        <v>0.571455359458923</v>
+        <v>0.40315717458725</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.002666598107840013</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>6.10518958242937</v>
+        <v>8.25354113810452</v>
       </c>
       <c r="B194" t="n">
-        <v>6.29029891859327</v>
+        <v>7.16549799433442</v>
       </c>
       <c r="C194" t="n">
-        <v>0.54037345978688</v>
+        <v>0.9163559497517511</v>
       </c>
       <c r="D194" t="n">
-        <v>0.444382011890411</v>
+        <v>0.568216919898987</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.9419547813579306</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7.65717220085176</v>
+        <v>7.39186026510442</v>
       </c>
       <c r="B195" t="n">
-        <v>6.3645973074082</v>
+        <v>6.0886637563901</v>
       </c>
       <c r="C195" t="n">
-        <v>1.15002366665162</v>
+        <v>0.334606349085188</v>
       </c>
       <c r="D195" t="n">
-        <v>0.580729603767395</v>
+        <v>0.481867492198944</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.3081159124519712</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>6.92122515155003</v>
+        <v>7.04274148784814</v>
       </c>
       <c r="B196" t="n">
-        <v>6.22042198503181</v>
+        <v>5.53999316599118</v>
       </c>
       <c r="C196" t="n">
-        <v>1.87225413769812</v>
+        <v>0.06640280933883951</v>
       </c>
       <c r="D196" t="n">
-        <v>0.437175214290619</v>
+        <v>0.728044925332069</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.9563979282105234</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>6.92080969805585</v>
+        <v>5.50236412940322</v>
       </c>
       <c r="B197" t="n">
-        <v>5.75998848990574</v>
+        <v>4.9383191508509</v>
       </c>
       <c r="C197" t="n">
-        <v>1.4514529690388</v>
+        <v>0.39877070831998</v>
       </c>
       <c r="D197" t="n">
-        <v>0.345938563346863</v>
+        <v>0.523420333862305</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-1.106391399436951</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>6.30766647208574</v>
+        <v>7.59117126467687</v>
       </c>
       <c r="B198" t="n">
-        <v>6.74658942794383</v>
+        <v>5.23033078310041</v>
       </c>
       <c r="C198" t="n">
-        <v>0.707741964536842</v>
+        <v>0.980396717160213</v>
       </c>
       <c r="D198" t="n">
-        <v>0.360340863466263</v>
+        <v>0.361562788486481</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.7948957332073584</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>6.27239179451022</v>
+        <v>6.4067915333126</v>
       </c>
       <c r="B199" t="n">
-        <v>5.88411190517762</v>
+        <v>6.42758339630715</v>
       </c>
       <c r="C199" t="n">
-        <v>0.592436568385625</v>
+        <v>0.786439957066514</v>
       </c>
       <c r="D199" t="n">
-        <v>0.44368988275528</v>
+        <v>0.564066708087921</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-0.1127971695934347</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>6.71343105753803</v>
+        <v>6.06933859725044</v>
       </c>
       <c r="B200" t="n">
-        <v>6.51520675866959</v>
+        <v>4.34847718714033</v>
       </c>
       <c r="C200" t="n">
-        <v>0.453946938033142</v>
+        <v>0.645216894224968</v>
       </c>
       <c r="D200" t="n">
-        <v>0.563477694988251</v>
+        <v>0.21364414691925</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.3705279493538985</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>7.80334603706515</v>
+        <v>5.19644631119152</v>
       </c>
       <c r="B201" t="n">
-        <v>4.88319172017499</v>
+        <v>3.65995386506896</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.102143315008048</v>
+        <v>0.762954278613782</v>
       </c>
       <c r="D201" t="n">
-        <v>0.728044925332069</v>
+        <v>0.368365466594696</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.6516449127631924</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5.10373454675292</v>
+        <v>6.29576550766195</v>
       </c>
       <c r="B202" t="n">
-        <v>4.83804422447142</v>
+        <v>5.68278034952596</v>
       </c>
       <c r="C202" t="n">
-        <v>0.178882988239572</v>
+        <v>0.526454444101579</v>
       </c>
       <c r="D202" t="n">
-        <v>0.352895826101303</v>
+        <v>0.529504179954529</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.5457305500524158</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>7.82371915744554</v>
+        <v>6.81555742087612</v>
       </c>
       <c r="B203" t="n">
-        <v>6.26490594879784</v>
+        <v>6.18117750560716</v>
       </c>
       <c r="C203" t="n">
-        <v>1.22533397096587</v>
+        <v>0.293661516431935</v>
       </c>
       <c r="D203" t="n">
-        <v>0.425565630197525</v>
+        <v>0.428403854370117</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>8.25354113810452</v>
-      </c>
-      <c r="B204" t="n">
-        <v>7.16549799433442</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.9163559497517511</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.568216919898987</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>6.28242673409737</v>
-      </c>
-      <c r="B205" t="n">
-        <v>6.71497130524835</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.0901984630795219</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.655797600746155</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>7.50898890467056</v>
-      </c>
-      <c r="B206" t="n">
-        <v>6.4259728498247</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.983116286743968</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.512972295284271</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>5.38591515489824</v>
-      </c>
-      <c r="B207" t="n">
-        <v>4.81454739962802</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.14533028702419</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.40315717458725</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>8.25354113810452</v>
-      </c>
-      <c r="B208" t="n">
-        <v>7.16549799433442</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.9163559497517511</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.568216919898987</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>7.39186026510442</v>
-      </c>
-      <c r="B209" t="n">
-        <v>6.0886637563901</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.334606349085188</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.481867492198944</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>7.04274148784814</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.53999316599118</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.06640280933883951</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.728044925332069</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>5.50236412940322</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.9383191508509</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.39877070831998</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.523420333862305</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>7.59117126467687</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.23033078310041</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.980396717160213</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.361562788486481</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>6.4067915333126</v>
-      </c>
-      <c r="B213" t="n">
-        <v>6.42758339630715</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.786439957066514</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.564066708087921</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>6.06933859725044</v>
-      </c>
-      <c r="B214" t="n">
-        <v>4.34847718714033</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.645216894224968</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.21364414691925</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>5.19644631119152</v>
-      </c>
-      <c r="B215" t="n">
-        <v>3.65995386506896</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.762954278613782</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.368365466594696</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>6.29576550766195</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.68278034952596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.526454444101579</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.529504179954529</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>6.81555742087612</v>
-      </c>
-      <c r="B217" t="n">
-        <v>6.18117750560716</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.293661516431935</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.428403854370117</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0</v>
+      <c r="F203" t="n">
+        <v>-0.6201094839305361</v>
       </c>
     </row>
   </sheetData>

--- a/PSM-四个变量-2009基期/匹配后数据集_四个变量.xlsx
+++ b/PSM-四个变量-2009基期/匹配后数据集_四个变量.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>city_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>logit_score</t>
         </is>
       </c>
@@ -469,7 +479,15 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>三明市</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.6286644080352393</v>
       </c>
     </row>
@@ -489,7 +507,15 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>东莞市</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6671155460521755</v>
       </c>
     </row>
@@ -509,7 +535,15 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>中山市</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2179137883552889</v>
       </c>
     </row>
@@ -529,7 +563,15 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.3546573132715832</v>
       </c>
     </row>
@@ -549,7 +591,15 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>乌海市</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.9757472125244655</v>
       </c>
     </row>
@@ -569,7 +619,15 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>乌鲁木齐市</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.030825748156359</v>
       </c>
     </row>
@@ -589,7 +647,15 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>云浮市</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.6338070996748623</v>
       </c>
     </row>
@@ -609,7 +675,15 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>佛山市</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.8668590642791186</v>
       </c>
     </row>
@@ -629,7 +703,15 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>保定市</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1663273449224008</v>
       </c>
     </row>
@@ -649,7 +731,15 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>六安市</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.5230382668037075</v>
       </c>
     </row>
@@ -669,7 +759,15 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>兰州市</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.279035002788297</v>
       </c>
     </row>
@@ -689,7 +787,15 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>十堰市</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.4915464469300441</v>
       </c>
     </row>
@@ -709,7 +815,15 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>南京市</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.887661033588823</v>
       </c>
     </row>
@@ -729,7 +843,15 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>南平市</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.3905943159322885</v>
       </c>
     </row>
@@ -749,7 +871,15 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>南昌市</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9931579936241534</v>
       </c>
     </row>
@@ -769,7 +899,15 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>厦门市</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.20207214254794</v>
       </c>
     </row>
@@ -789,7 +927,15 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>合肥市</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.106433323085804</v>
       </c>
     </row>
@@ -809,7 +955,15 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H19" t="n">
         <v>-0.5678490455715921</v>
       </c>
     </row>
@@ -829,7 +983,15 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>吉林市</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.63232907746145</v>
       </c>
     </row>
@@ -849,7 +1011,15 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>吴忠市</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.4402773439879248</v>
       </c>
     </row>
@@ -869,7 +1039,15 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.8541602602121471</v>
       </c>
     </row>
@@ -889,7 +1067,15 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>咸宁市</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H23" t="n">
         <v>-1.141945666407446</v>
       </c>
     </row>
@@ -909,7 +1095,15 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>咸阳市</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.6038553810350087</v>
       </c>
     </row>
@@ -929,7 +1123,15 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H25" t="n">
         <v>-0.8489647873824467</v>
       </c>
     </row>
@@ -949,7 +1151,15 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>嘉兴市</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.6546225121448381</v>
       </c>
     </row>
@@ -969,7 +1179,15 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>大连市</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.9458217802914393</v>
       </c>
     </row>
@@ -989,7 +1207,15 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>天津市</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.457015723076256</v>
       </c>
     </row>
@@ -1009,7 +1235,15 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>孝感市</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H29" t="n">
         <v>-0.8013224745665668</v>
       </c>
     </row>
@@ -1029,7 +1263,15 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>安康市</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H30" t="n">
         <v>-0.7173893244503544</v>
       </c>
     </row>
@@ -1049,7 +1291,15 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>宜昌市</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.2062023431988432</v>
       </c>
     </row>
@@ -1069,7 +1319,15 @@
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>宝鸡市</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H32" t="n">
         <v>-0.6446267773381036</v>
       </c>
     </row>
@@ -1089,7 +1347,15 @@
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>宣城市</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H33" t="n">
         <v>-0.7075353388865511</v>
       </c>
     </row>
@@ -1109,7 +1375,15 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>常州市</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.615355896399061</v>
       </c>
     </row>
@@ -1129,7 +1403,15 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>广元市</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H35" t="n">
         <v>-0.08378553607003526</v>
       </c>
     </row>
@@ -1149,7 +1431,15 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>广州市</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.98231193422422</v>
       </c>
     </row>
@@ -1169,7 +1459,15 @@
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>延安市</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H37" t="n">
         <v>-1.086716702352583</v>
       </c>
     </row>
@@ -1189,7 +1487,15 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>惠州市</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.04018363227865569</v>
       </c>
     </row>
@@ -1209,7 +1515,15 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.974158717795605</v>
       </c>
     </row>
@@ -1229,7 +1543,15 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H40" t="n">
         <v>-0.7646812479236187</v>
       </c>
     </row>
@@ -1249,7 +1571,15 @@
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>抚顺市</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H41" t="n">
         <v>-0.5350325764203009</v>
       </c>
     </row>
@@ -1269,7 +1599,15 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>揭阳市</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H42" t="n">
         <v>-0.688672522408796</v>
       </c>
     </row>
@@ -1289,7 +1627,15 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>昆明市</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.94956253109355</v>
       </c>
     </row>
@@ -1309,7 +1655,15 @@
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>晋城市</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H44" t="n">
         <v>-0.1079684891756174</v>
       </c>
     </row>
@@ -1329,7 +1683,15 @@
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>景德镇市</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H45" t="n">
         <v>-1.146309308335729</v>
       </c>
     </row>
@@ -1349,7 +1711,15 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H46" t="n">
         <v>-0.6555317070249097</v>
       </c>
     </row>
@@ -1369,7 +1739,15 @@
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>本溪市</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H47" t="n">
         <v>-0.7087862891631957</v>
       </c>
     </row>
@@ -1389,7 +1767,15 @@
       <c r="E48" t="n">
         <v>1</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>柳州市</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H48" t="n">
         <v>-0.1915233547752404</v>
       </c>
     </row>
@@ -1409,7 +1795,15 @@
       <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>株洲市</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H49" t="n">
         <v>-0.638753195433218</v>
       </c>
     </row>
@@ -1429,7 +1823,15 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>桂林市</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H50" t="n">
         <v>-0.2512123737005026</v>
       </c>
     </row>
@@ -1449,7 +1851,15 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>梅州市</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H51" t="n">
         <v>-0.459305804695717</v>
       </c>
     </row>
@@ -1469,7 +1879,15 @@
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>榆林市</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H52" t="n">
         <v>-0.945599029804295</v>
       </c>
     </row>
@@ -1489,7 +1907,15 @@
       <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>汉中市</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H53" t="n">
         <v>-0.3857245280287653</v>
       </c>
     </row>
@@ -1509,7 +1935,15 @@
       <c r="E54" t="n">
         <v>1</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>汕头市</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.04949919705146616</v>
       </c>
     </row>
@@ -1529,7 +1963,15 @@
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>汕尾市</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H55" t="n">
         <v>-1.475086807991014</v>
       </c>
     </row>
@@ -1549,7 +1991,15 @@
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>江门市</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.1295224601502531</v>
       </c>
     </row>
@@ -1569,7 +2019,15 @@
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>池州市</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H57" t="n">
         <v>-0.8966447102661703</v>
       </c>
     </row>
@@ -1589,7 +2047,15 @@
       <c r="E58" t="n">
         <v>1</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.9820220960377151</v>
       </c>
     </row>
@@ -1609,7 +2075,15 @@
       <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>河源市</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H59" t="n">
         <v>-0.7019421910120242</v>
       </c>
     </row>
@@ -1629,7 +2103,15 @@
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H60" t="n">
         <v>-0.566698631669133</v>
       </c>
     </row>
@@ -1649,7 +2131,15 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>淮安市</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H61" t="n">
         <v>-0.5615382056414889</v>
       </c>
     </row>
@@ -1669,7 +2159,15 @@
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>深圳市</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.821587555868383</v>
       </c>
     </row>
@@ -1689,7 +2187,15 @@
       <c r="E63" t="n">
         <v>1</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>清远市</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H63" t="n">
         <v>-0.7543985809466762</v>
       </c>
     </row>
@@ -1709,7 +2215,15 @@
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>温州市</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.395810782463125</v>
       </c>
     </row>
@@ -1729,7 +2243,15 @@
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>渭南市</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H65" t="n">
         <v>-0.4274673554311268</v>
       </c>
     </row>
@@ -1749,7 +2271,15 @@
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>湘潭市</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H66" t="n">
         <v>-0.7098359878027888</v>
       </c>
     </row>
@@ -1769,7 +2299,15 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>湛江市</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H67" t="n">
         <v>-0.2389584052286692</v>
       </c>
     </row>
@@ -1789,7 +2327,15 @@
       <c r="E68" t="n">
         <v>1</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>潍坊市</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.1644504424995519</v>
       </c>
     </row>
@@ -1809,7 +2355,15 @@
       <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>潮州市</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H69" t="n">
         <v>-0.7486234697885166</v>
       </c>
     </row>
@@ -1829,7 +2383,15 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>烟台市</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.03961149194039749</v>
       </c>
     </row>
@@ -1849,7 +2411,15 @@
       <c r="E71" t="n">
         <v>1</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>珠海市</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.6387050861074636</v>
       </c>
     </row>
@@ -1869,7 +2439,15 @@
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H72" t="n">
         <v>-0.5952848996079119</v>
       </c>
     </row>
@@ -1889,7 +2467,15 @@
       <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>石家庄市</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.8861381702579808</v>
       </c>
     </row>
@@ -1909,7 +2495,15 @@
       <c r="E74" t="n">
         <v>1</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.06372238546749931</v>
       </c>
     </row>
@@ -1929,7 +2523,15 @@
       <c r="E75" t="n">
         <v>1</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>肇庆市</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H75" t="n">
         <v>-0.3586052310199703</v>
       </c>
     </row>
@@ -1949,7 +2551,15 @@
       <c r="E76" t="n">
         <v>1</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>苏州市</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.100028154705867</v>
       </c>
     </row>
@@ -1969,7 +2579,15 @@
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>茂名市</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H77" t="n">
         <v>-1.038818275134141</v>
       </c>
     </row>
@@ -1989,7 +2607,15 @@
       <c r="E78" t="n">
         <v>1</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>荆州市</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H78" t="n">
         <v>-0.3713399653713065</v>
       </c>
     </row>
@@ -2009,7 +2635,15 @@
       <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>荆门市</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H79" t="n">
         <v>-0.909202884529829</v>
       </c>
     </row>
@@ -2029,7 +2663,15 @@
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>衢州市</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H80" t="n">
         <v>-0.1947942266968543</v>
       </c>
     </row>
@@ -2049,7 +2691,15 @@
       <c r="E81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>襄阳市</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H81" t="n">
         <v>-0.5818682463622347</v>
       </c>
     </row>
@@ -2069,7 +2719,15 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.9866751646261028</v>
       </c>
     </row>
@@ -2089,7 +2747,15 @@
       <c r="E83" t="n">
         <v>1</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.17285043138531</v>
       </c>
     </row>
@@ -2109,7 +2775,15 @@
       <c r="E84" t="n">
         <v>1</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H84" t="n">
         <v>-0.1995953700119882</v>
       </c>
     </row>
@@ -2129,7 +2803,15 @@
       <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>辽阳市</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H85" t="n">
         <v>-0.4301608221170052</v>
       </c>
     </row>
@@ -2149,7 +2831,15 @@
       <c r="E86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>遵义市</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H86" t="n">
         <v>-0.4495282980732311</v>
       </c>
     </row>
@@ -2169,7 +2859,15 @@
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>郴州市</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H87" t="n">
         <v>-0.8603079734480956</v>
       </c>
     </row>
@@ -2189,7 +2887,15 @@
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>重庆市</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.411412553759749</v>
       </c>
     </row>
@@ -2209,7 +2915,15 @@
       <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>金华市</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.9104929300671992</v>
       </c>
     </row>
@@ -2229,7 +2943,15 @@
       <c r="E90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>金昌市</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H90" t="n">
         <v>-1.260067704547395</v>
       </c>
     </row>
@@ -2249,7 +2971,15 @@
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>银川市</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.7036291517619061</v>
       </c>
     </row>
@@ -2269,7 +2999,15 @@
       <c r="E92" t="n">
         <v>1</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>镇江市</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H92" t="n">
         <v>-0.0128526579464455</v>
       </c>
     </row>
@@ -2289,7 +3027,15 @@
       <c r="E93" t="n">
         <v>1</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>长沙市</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.9421785216100316</v>
       </c>
     </row>
@@ -2309,7 +3055,15 @@
       <c r="E94" t="n">
         <v>1</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H94" t="n">
         <v>-0.3073448221962944</v>
       </c>
     </row>
@@ -2329,7 +3083,15 @@
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H95" t="n">
         <v>-0.9548543454865129</v>
       </c>
     </row>
@@ -2349,7 +3111,15 @@
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>随州市</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H96" t="n">
         <v>-1.105707380401155</v>
       </c>
     </row>
@@ -2369,7 +3139,15 @@
       <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>青岛市</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.8420080006013855</v>
       </c>
     </row>
@@ -2389,7 +3167,15 @@
       <c r="E98" t="n">
         <v>1</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H98" t="n">
         <v>-0.1138138227170398</v>
       </c>
     </row>
@@ -2409,7 +3195,15 @@
       <c r="E99" t="n">
         <v>1</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>韶关市</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H99" t="n">
         <v>-0.3732150365014519</v>
       </c>
     </row>
@@ -2429,7 +3223,15 @@
       <c r="E100" t="n">
         <v>1</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>黄冈市</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H100" t="n">
         <v>-0.6515153191744094</v>
       </c>
     </row>
@@ -2449,7 +3251,15 @@
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>黄山市</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H101" t="n">
         <v>-0.546194815730262</v>
       </c>
     </row>
@@ -2469,7 +3279,15 @@
       <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>黄石市</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H102" t="n">
         <v>-0.6198317873899363</v>
       </c>
     </row>
@@ -2489,7 +3307,15 @@
       <c r="E103" t="n">
         <v>0</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>定西市</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H103" t="n">
         <v>-0.6324955135549961</v>
       </c>
     </row>
@@ -2509,7 +3335,15 @@
       <c r="E104" t="n">
         <v>0</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.7129375687431981</v>
       </c>
     </row>
@@ -2529,7 +3363,15 @@
       <c r="E105" t="n">
         <v>0</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>丽水市</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.1976230697913742</v>
       </c>
     </row>
@@ -2549,7 +3391,15 @@
       <c r="E106" t="n">
         <v>0</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>济宁市</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H106" t="n">
         <v>-0.3488924130152178</v>
       </c>
     </row>
@@ -2569,7 +3419,15 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>张家界市</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H107" t="n">
         <v>-0.9766168474879161</v>
       </c>
     </row>
@@ -2589,7 +3447,15 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>绍兴市</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.010691777718373</v>
       </c>
     </row>
@@ -2609,7 +3475,15 @@
       <c r="E109" t="n">
         <v>0</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>定西市</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H109" t="n">
         <v>-0.6324955135549961</v>
       </c>
     </row>
@@ -2629,7 +3503,15 @@
       <c r="E110" t="n">
         <v>0</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.7948957332073584</v>
       </c>
     </row>
@@ -2649,7 +3531,15 @@
       <c r="E111" t="n">
         <v>0</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>湖州市</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.1744213364634064</v>
       </c>
     </row>
@@ -2669,7 +3559,15 @@
       <c r="E112" t="n">
         <v>0</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>安顺市</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H112" t="n">
         <v>-0.5128691386935544</v>
       </c>
     </row>
@@ -2689,7 +3587,15 @@
       <c r="E113" t="n">
         <v>0</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>福州市</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.252522044472714</v>
       </c>
     </row>
@@ -2709,7 +3615,15 @@
       <c r="E114" t="n">
         <v>0</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>鹤岗市</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H114" t="n">
         <v>-0.4897118288828518</v>
       </c>
     </row>
@@ -2729,7 +3643,15 @@
       <c r="E115" t="n">
         <v>0</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>太原市</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.802526522029602</v>
       </c>
     </row>
@@ -2749,7 +3671,15 @@
       <c r="E116" t="n">
         <v>0</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>邵阳市</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H116" t="n">
         <v>-0.3988275729668794</v>
       </c>
     </row>
@@ -2769,7 +3699,15 @@
       <c r="E117" t="n">
         <v>0</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>绍兴市</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.010691777718373</v>
       </c>
     </row>
@@ -2789,7 +3727,15 @@
       <c r="E118" t="n">
         <v>0</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>南宁市</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.198158770687385</v>
       </c>
     </row>
@@ -2809,7 +3755,15 @@
       <c r="E119" t="n">
         <v>0</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>南宁市</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.198158770687385</v>
       </c>
     </row>
@@ -2829,7 +3783,15 @@
       <c r="E120" t="n">
         <v>0</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>滁州市</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H120" t="n">
         <v>-0.5625430834114967</v>
       </c>
     </row>
@@ -2849,7 +3811,15 @@
       <c r="E121" t="n">
         <v>0</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>定西市</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H121" t="n">
         <v>-0.6324955135549961</v>
       </c>
     </row>
@@ -2869,7 +3839,15 @@
       <c r="E122" t="n">
         <v>0</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>运城市</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H122" t="n">
         <v>-0.4286413857726908</v>
       </c>
     </row>
@@ -2889,7 +3867,15 @@
       <c r="E123" t="n">
         <v>0</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>六盘水市</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H123" t="n">
         <v>-0.855394876087999</v>
       </c>
     </row>
@@ -2909,7 +3895,15 @@
       <c r="E124" t="n">
         <v>0</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>梧州市</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H124" t="n">
         <v>-1.145279754992104</v>
       </c>
     </row>
@@ -2929,7 +3923,15 @@
       <c r="E125" t="n">
         <v>0</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H125" t="n">
         <v>-0.6075142302775681</v>
       </c>
     </row>
@@ -2949,7 +3951,15 @@
       <c r="E126" t="n">
         <v>0</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>武威市</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H126" t="n">
         <v>-0.8497397322644848</v>
       </c>
     </row>
@@ -2969,7 +3979,15 @@
       <c r="E127" t="n">
         <v>0</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.7129375687431981</v>
       </c>
     </row>
@@ -2989,7 +4007,15 @@
       <c r="E128" t="n">
         <v>0</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>长春市</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.9425137024737759</v>
       </c>
     </row>
@@ -3009,7 +4035,15 @@
       <c r="E129" t="n">
         <v>0</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>福州市</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.252522044472714</v>
       </c>
     </row>
@@ -3029,7 +4063,15 @@
       <c r="E130" t="n">
         <v>0</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>钦州市</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H130" t="n">
         <v>-0.8057676013878751</v>
       </c>
     </row>
@@ -3049,7 +4091,15 @@
       <c r="E131" t="n">
         <v>0</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H131" t="n">
         <v>-0.7371319534509596</v>
       </c>
     </row>
@@ -3069,7 +4119,15 @@
       <c r="E132" t="n">
         <v>0</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>丽水市</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.1976230697913742</v>
       </c>
     </row>
@@ -3089,7 +4147,15 @@
       <c r="E133" t="n">
         <v>0</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>漳州市</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H133" t="n">
         <v>-0.644618972944783</v>
       </c>
     </row>
@@ -3109,7 +4175,15 @@
       <c r="E134" t="n">
         <v>0</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H134" t="n">
         <v>-0.6972898028111501</v>
       </c>
     </row>
@@ -3129,7 +4203,15 @@
       <c r="E135" t="n">
         <v>0</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.7129375687431981</v>
       </c>
     </row>
@@ -3149,7 +4231,15 @@
       <c r="E136" t="n">
         <v>0</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>邢台市</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H136" t="n">
         <v>-0.07821960136676509</v>
       </c>
     </row>
@@ -3169,7 +4259,15 @@
       <c r="E137" t="n">
         <v>0</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>太原市</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.802526522029602</v>
       </c>
     </row>
@@ -3189,7 +4287,15 @@
       <c r="E138" t="n">
         <v>0</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H138" t="n">
         <v>-1.086523584553005</v>
       </c>
     </row>
@@ -3209,7 +4315,15 @@
       <c r="E139" t="n">
         <v>0</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.04672051225513019</v>
       </c>
     </row>
@@ -3229,7 +4343,15 @@
       <c r="E140" t="n">
         <v>0</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>太原市</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.802526522029602</v>
       </c>
     </row>
@@ -3249,7 +4371,15 @@
       <c r="E141" t="n">
         <v>0</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>南阳市</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H141" t="n">
         <v>-0.7640757700161593</v>
       </c>
     </row>
@@ -3269,7 +4399,15 @@
       <c r="E142" t="n">
         <v>0</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>乐山市</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H142" t="n">
         <v>-0.5415562299087689</v>
       </c>
     </row>
@@ -3289,7 +4427,15 @@
       <c r="E143" t="n">
         <v>0</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>双鸭山市</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H143" t="n">
         <v>-0.6904835679770015</v>
       </c>
     </row>
@@ -3309,7 +4455,15 @@
       <c r="E144" t="n">
         <v>0</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>太原市</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.802526522029602</v>
       </c>
     </row>
@@ -3329,7 +4483,15 @@
       <c r="E145" t="n">
         <v>0</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>德阳市</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H145" t="n">
         <v>-0.1127971695934347</v>
       </c>
     </row>
@@ -3349,7 +4511,15 @@
       <c r="E146" t="n">
         <v>0</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>梧州市</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H146" t="n">
         <v>-1.145279754992104</v>
       </c>
     </row>
@@ -3369,7 +4539,15 @@
       <c r="E147" t="n">
         <v>0</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>泸州市</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H147" t="n">
         <v>-0.6554773143805465</v>
       </c>
     </row>
@@ -3389,7 +4567,15 @@
       <c r="E148" t="n">
         <v>0</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H148" t="n">
         <v>-0.6972898028111501</v>
       </c>
     </row>
@@ -3409,7 +4595,15 @@
       <c r="E149" t="n">
         <v>0</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>阳泉市</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H149" t="n">
         <v>-0.1808814404532761</v>
       </c>
     </row>
@@ -3429,7 +4623,15 @@
       <c r="E150" t="n">
         <v>0</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>天水市</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H150" t="n">
         <v>-0.6412561407310349</v>
       </c>
     </row>
@@ -3449,7 +4651,15 @@
       <c r="E151" t="n">
         <v>0</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H151" t="n">
         <v>-0.2588782677569357</v>
       </c>
     </row>
@@ -3469,7 +4679,15 @@
       <c r="E152" t="n">
         <v>0</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>新乡市</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H152" t="n">
         <v>-0.4702849874233969</v>
       </c>
     </row>
@@ -3489,7 +4707,15 @@
       <c r="E153" t="n">
         <v>0</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>贵港市</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H153" t="n">
         <v>-0.9485483607890796</v>
       </c>
     </row>
@@ -3509,7 +4735,15 @@
       <c r="E154" t="n">
         <v>0</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H154" t="n">
         <v>-0.3800326664651587</v>
       </c>
     </row>
@@ -3529,7 +4763,15 @@
       <c r="E155" t="n">
         <v>0</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.04990485545229876</v>
       </c>
     </row>
@@ -3549,7 +4791,15 @@
       <c r="E156" t="n">
         <v>0</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>通辽市</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H156" t="n">
         <v>-1.491691484245771</v>
       </c>
     </row>
@@ -3569,7 +4819,15 @@
       <c r="E157" t="n">
         <v>0</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>泉州市</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.132054456634946</v>
       </c>
     </row>
@@ -3589,7 +4847,15 @@
       <c r="E158" t="n">
         <v>0</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>益阳市</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H158" t="n">
         <v>-0.8973048584378345</v>
       </c>
     </row>
@@ -3609,7 +4875,15 @@
       <c r="E159" t="n">
         <v>0</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>绍兴市</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.010691777718373</v>
       </c>
     </row>
@@ -3629,7 +4903,15 @@
       <c r="E160" t="n">
         <v>0</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H160" t="n">
         <v>-0.6972898028111501</v>
       </c>
     </row>
@@ -3649,7 +4931,15 @@
       <c r="E161" t="n">
         <v>0</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>滁州市</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H161" t="n">
         <v>-0.5625430834114967</v>
       </c>
     </row>
@@ -3669,7 +4959,15 @@
       <c r="E162" t="n">
         <v>0</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>滁州市</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H162" t="n">
         <v>-0.5625430834114967</v>
       </c>
     </row>
@@ -3689,7 +4987,15 @@
       <c r="E163" t="n">
         <v>0</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>太原市</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.802526522029602</v>
       </c>
     </row>
@@ -3709,7 +5015,15 @@
       <c r="E164" t="n">
         <v>0</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>聊城市</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H164" t="n">
         <v>-0.7566479879854073</v>
       </c>
     </row>
@@ -3729,7 +5043,15 @@
       <c r="E165" t="n">
         <v>0</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>福州市</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.252522044472714</v>
       </c>
     </row>
@@ -3749,7 +5071,15 @@
       <c r="E166" t="n">
         <v>0</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>运城市</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H166" t="n">
         <v>-0.4286413857726908</v>
       </c>
     </row>
@@ -3769,7 +5099,15 @@
       <c r="E167" t="n">
         <v>0</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>宜宾市</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H167" t="n">
         <v>-0.6972898028111501</v>
       </c>
     </row>
@@ -3789,7 +5127,15 @@
       <c r="E168" t="n">
         <v>0</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H168" t="n">
         <v>-0.221593817062341</v>
       </c>
     </row>
@@ -3809,7 +5155,15 @@
       <c r="E169" t="n">
         <v>0</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>湖州市</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.1744213364634064</v>
       </c>
     </row>
@@ -3829,7 +5183,15 @@
       <c r="E170" t="n">
         <v>0</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>通化市</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H170" t="n">
         <v>-0.7459704599378846</v>
       </c>
     </row>
@@ -3849,7 +5211,15 @@
       <c r="E171" t="n">
         <v>0</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.04672051225513019</v>
       </c>
     </row>
@@ -3869,7 +5239,15 @@
       <c r="E172" t="n">
         <v>0</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.7129375687431981</v>
       </c>
     </row>
@@ -3889,7 +5267,15 @@
       <c r="E173" t="n">
         <v>0</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H173" t="n">
         <v>-0.5940956658286608</v>
       </c>
     </row>
@@ -3909,7 +5295,15 @@
       <c r="E174" t="n">
         <v>0</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>无锡市</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H174" t="n">
         <v>0.9419547813579306</v>
       </c>
     </row>
@@ -3929,7 +5323,15 @@
       <c r="E175" t="n">
         <v>0</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.04990485545229876</v>
       </c>
     </row>
@@ -3949,7 +5351,15 @@
       <c r="E176" t="n">
         <v>0</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>济宁市</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H176" t="n">
         <v>-0.3488924130152178</v>
       </c>
     </row>
@@ -3969,7 +5379,15 @@
       <c r="E177" t="n">
         <v>0</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>绍兴市</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.010691777718373</v>
       </c>
     </row>
@@ -3989,7 +5407,15 @@
       <c r="E178" t="n">
         <v>0</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>巴彦淖尔市</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H178" t="n">
         <v>-1.038774584775906</v>
       </c>
     </row>
@@ -4009,7 +5435,15 @@
       <c r="E179" t="n">
         <v>0</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>佳木斯市</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H179" t="n">
         <v>-0.3705279493538985</v>
       </c>
     </row>
@@ -4029,7 +5463,15 @@
       <c r="E180" t="n">
         <v>0</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>益阳市</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H180" t="n">
         <v>-0.8973048584378345</v>
       </c>
     </row>
@@ -4049,7 +5491,15 @@
       <c r="E181" t="n">
         <v>0</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>阳泉市</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H181" t="n">
         <v>-0.1808814404532761</v>
       </c>
     </row>
@@ -4069,7 +5519,15 @@
       <c r="E182" t="n">
         <v>0</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>蚌埠市</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H182" t="n">
         <v>-0.5843257816238761</v>
       </c>
     </row>
@@ -4089,7 +5547,15 @@
       <c r="E183" t="n">
         <v>0</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>绍兴市</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.010691777718373</v>
       </c>
     </row>
@@ -4109,7 +5575,15 @@
       <c r="E184" t="n">
         <v>0</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>南宁市</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.198158770687385</v>
       </c>
     </row>
@@ -4129,7 +5603,15 @@
       <c r="E185" t="n">
         <v>0</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>阜阳市</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H185" t="n">
         <v>-0.209670477022399</v>
       </c>
     </row>
@@ -4149,7 +5631,15 @@
       <c r="E186" t="n">
         <v>0</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>运城市</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H186" t="n">
         <v>-0.4286413857726908</v>
       </c>
     </row>
@@ -4169,7 +5659,15 @@
       <c r="E187" t="n">
         <v>0</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>新乡市</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H187" t="n">
         <v>-0.4702849874233969</v>
       </c>
     </row>
@@ -4189,7 +5687,15 @@
       <c r="E188" t="n">
         <v>0</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H188" t="n">
         <v>-0.8573693179252035</v>
       </c>
     </row>
@@ -4209,7 +5715,15 @@
       <c r="E189" t="n">
         <v>0</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>福州市</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.252522044472714</v>
       </c>
     </row>
@@ -4229,7 +5743,15 @@
       <c r="E190" t="n">
         <v>0</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>无锡市</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H190" t="n">
         <v>0.9419547813579306</v>
       </c>
     </row>
@@ -4249,7 +5771,15 @@
       <c r="E191" t="n">
         <v>0</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>濮阳市</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H191" t="n">
         <v>-1.248464741107578</v>
       </c>
     </row>
@@ -4269,7 +5799,15 @@
       <c r="E192" t="n">
         <v>0</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H192" t="n">
         <v>0.7129375687431981</v>
       </c>
     </row>
@@ -4289,7 +5827,15 @@
       <c r="E193" t="n">
         <v>0</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H193" t="n">
         <v>0.002666598107840013</v>
       </c>
     </row>
@@ -4309,7 +5855,15 @@
       <c r="E194" t="n">
         <v>0</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>无锡市</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.9419547813579306</v>
       </c>
     </row>
@@ -4329,7 +5883,15 @@
       <c r="E195" t="n">
         <v>0</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>盐城市</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H195" t="n">
         <v>-0.3081159124519712</v>
       </c>
     </row>
@@ -4349,7 +5911,15 @@
       <c r="E196" t="n">
         <v>0</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>东营市</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H196" t="n">
         <v>-0.9563979282105234</v>
       </c>
     </row>
@@ -4369,7 +5939,15 @@
       <c r="E197" t="n">
         <v>0</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>朔州市</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H197" t="n">
         <v>-1.106391399436951</v>
       </c>
     </row>
@@ -4389,7 +5967,15 @@
       <c r="E198" t="n">
         <v>0</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H198" t="n">
         <v>0.7948957332073584</v>
       </c>
     </row>
@@ -4409,7 +5995,15 @@
       <c r="E199" t="n">
         <v>0</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>德阳市</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H199" t="n">
         <v>-0.1127971695934347</v>
       </c>
     </row>
@@ -4429,7 +6023,15 @@
       <c r="E200" t="n">
         <v>0</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>佳木斯市</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H200" t="n">
         <v>-0.3705279493538985</v>
       </c>
     </row>
@@ -4449,7 +6051,15 @@
       <c r="E201" t="n">
         <v>0</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H201" t="n">
         <v>-0.6516449127631924</v>
       </c>
     </row>
@@ -4469,7 +6079,15 @@
       <c r="E202" t="n">
         <v>0</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H202" t="n">
         <v>-0.5457305500524158</v>
       </c>
     </row>
@@ -4489,7 +6107,15 @@
       <c r="E203" t="n">
         <v>0</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H203" t="n">
         <v>-0.6201094839305361</v>
       </c>
     </row>
